--- a/databases/xlsx/import_all/import 21.07.xlsx
+++ b/databases/xlsx/import_all/import 21.07.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="526">
   <si>
     <t xml:space="preserve">Организация</t>
   </si>
@@ -1427,6 +1427,902 @@
     <t xml:space="preserve">01507</t>
   </si>
   <si>
+    <t xml:space="preserve">Экран</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бывший Олтекс ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смирнова (вместо смазливки) ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спорт тайм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Адидас" ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адидас и Reebok (один счетчик в Адидасе)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"МИЦАР" ООО Летуаль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Летуаль+вывеска 300Вт октябрь-март 11ч=99кВт, апрель-сентябрь 8ч=72кВт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодва ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAPPY TOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бегларян Л.Р. ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модный сезон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тельнов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подиум(съехал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ротанг Орвис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мебель ротанг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мартынюк ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vezze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добренький В.А. ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спорт Сити</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Кари" ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кари</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Масалкова (Калиопа)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calioppe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calioppe cклад под переходом 3к</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сустов В.В. ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roy Robson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Круликовский А.В. ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QN(Connect)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Московчук Н.Ф.  ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курдзюк С.А. ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2brothers(кофе у траволатора)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мельничук П.Ф. ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outpac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оганнисян А.Г. ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пироговая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Осипенко ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оптика МКЛ ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛюксОптика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рыжков/Рыжков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Катков В.А. ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Островки Крым золото (напротив GoErgo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ТД Виза" ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA(съехал)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рыжков В.В./Рыжков Э.В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пьер Карден</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Харахурсах А.С. ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELIGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сустов ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аурель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мельников ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сервис Групп ООО (пицца)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хинкалыч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Старик Хинкалыч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Саленко А.Н. ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Золото России (напротив Кари)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103095569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крым Серебро (напротив Кари)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гуливер Люкс трэйд ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulliver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прививки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рибай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Угол ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Умами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Щит в э/щ на цокольный этаж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Умами островок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Авагян (ателье) № 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ателье</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корпус 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Попкорн № 102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Попкорн(от кинотеатра)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мельничук  П.Ф.  № 103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мусатов А.В. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Rich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горелик А.И.  №105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОРСКОЙ КЛУБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чувахин Сергей № 106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ильина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musthave</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Шведова </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="20"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">А.В.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">№108</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вессель ИП (посуда)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gipfel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Любченко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERRA NOVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">44271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соскова О.Ю №116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Борисенко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ларионов В.В. ИП  №118 мас. кресла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casada кресла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смей Н.А.  №119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гребенюк  №120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Орехова №121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeanstop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хомутова №122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моисейкин П.А.  1к</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сев.подарок.ру (островок)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Синичкин Р.В. №114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chocolate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баскакова  (парикмахерская)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platinum -парикмахерская на 2-м этаже</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чупахина И.А. 4к</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чайная Сказка (островок) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алферьева ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инлавка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юрченко ИП </t>
+  </si>
+  <si>
+    <t xml:space="preserve">61146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижметдинов А. ИП №124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мишутка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карасева №115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Котофей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Камаев С.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Morgan островок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баринов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аверин ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тянучки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нежмединов А.С. переход к.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крокодил, напротив Renzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гладышева 3к</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мир японских ножей(островок)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нежмединов А.С.  переход к.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крокодил, напротив Мишутки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кравченко М.В. №901,902 (2 чел.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARDEROB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корпус 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Грохольский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Котелевская И.П. №904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEDAMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чернышева ( был Леонтьев С.Н.) №905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAMBINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воронин ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тигрюля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лопашинская Л.А.№907 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">69787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODA CRISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нина О Торговый дом №908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAN CLIFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соскова О.Ю. №909 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">69791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONDO 1сч.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONDO 2сч.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Левина Е.Е. №911 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">64265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERMAN SHOES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Синичкин  №912 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">63583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC FASHION CLUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уханева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalamata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ямагучи Крым ООО №914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЯМАГУЧЧИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Титова ИП (яхтинг)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popilov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шинкарева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Империя меха</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петрова Л.В. №917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потапова И.В. №918 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">65803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мусихина А.№919 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">45419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мухина Д.И. №920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дефиле</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семикина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Femme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алешина Е.А. №923,924,925 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">63943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTON (1 счетчик)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алешина Е.А.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">75973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTON (2 счетик)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Бондарь ИП </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">( был Чубаров )</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">54561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Антонова Е.Ф.№927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DALI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Слипченко Е.И. №928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAGGON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нечипоренко Д.К. (цветы)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цветочный магазин на улице перед входом в корп.№9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Викулова С.Г./Савкина Н.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трюфель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владимирова С.В. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ателье возле бутика GARDEROB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самойлова ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Страна Гулливера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Столяр К.Ю. (островок кофе)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">островок кофе (возле CORNERY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ГАНАР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Брендсмарт 2-й этаж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕГА ШОП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGA SHOP (2-й этаж,сч. В щитовой)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марченко Ю.В. делить на2 с Талиевым</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">справа от входа (ремонт часов)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лазарева ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коффишка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хоз.двор, ангары, гаражи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Саруханова Н.С ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">корп.№1, Зоомагазин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корпус 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">№ счетчика</t>
   </si>
   <si>
@@ -1440,47 +2336,22 @@
   </si>
   <si>
     <t xml:space="preserve">Текущие</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTON (1 счетчик)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTON (2 счетик)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Брендсмарт 2-й этаж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЛИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03758</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="170" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1641,11 +2512,30 @@
       <charset val="204"/>
     </font>
     <font>
+      <i val="true"/>
+      <sz val="18"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="20"/>
       <color rgb="FF7030A0"/>
       <name val="Arial Cyr"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
@@ -1655,7 +2545,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1666,6 +2556,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF7D1D5"/>
         <bgColor rgb="FFDDE8CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF38"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF127622"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -1681,7 +2601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1731,6 +2651,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1761,7 +2688,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="113">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1794,7 +2721,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1814,7 +2741,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1830,7 +2757,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1842,11 +2773,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1870,7 +2801,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1882,115 +2813,267 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1998,71 +3081,63 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2083,18 +3158,18 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFFF38"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF127622"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF7030A0"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -2147,17 +3222,17 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H98" activeCellId="0" sqref="H98"/>
+      <selection pane="bottomLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="102.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="138.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.57"/>
@@ -2209,7 +3284,6 @@
       <c r="F2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7"/>
       <c r="H2" s="12" t="n">
         <v>4</v>
       </c>
@@ -2236,7 +3310,6 @@
       <c r="F3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="7"/>
       <c r="H3" s="12" t="n">
         <v>4</v>
       </c>
@@ -2261,7 +3334,6 @@
       <c r="F4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7"/>
       <c r="H4" s="12" t="n">
         <v>4</v>
       </c>
@@ -2286,7 +3358,6 @@
       <c r="F5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7"/>
       <c r="H5" s="12" t="n">
         <v>4</v>
       </c>
@@ -2311,7 +3382,6 @@
       <c r="F6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="7"/>
       <c r="H6" s="12" t="n">
         <v>4</v>
       </c>
@@ -2336,7 +3406,6 @@
       <c r="F7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="7"/>
       <c r="H7" s="12" t="n">
         <v>4</v>
       </c>
@@ -2361,14 +3430,13 @@
       <c r="F8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="7"/>
       <c r="H8" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="9" t="n">
@@ -2386,23 +3454,22 @@
       <c r="F9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="7"/>
       <c r="H9" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="18" t="n">
+      <c r="B10" s="19" t="n">
         <v>66414.515</v>
       </c>
-      <c r="C10" s="18" t="n">
+      <c r="C10" s="19" t="n">
         <v>66971.813</v>
       </c>
-      <c r="D10" s="19" t="n">
+      <c r="D10" s="20" t="n">
         <v>40</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -2411,14 +3478,13 @@
       <c r="F10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="7"/>
       <c r="H10" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="9" t="n">
@@ -2436,14 +3502,13 @@
       <c r="F11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="7"/>
       <c r="H11" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="9" t="n">
@@ -2455,13 +3520,13 @@
       <c r="D12" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="7" t="n">
+      <c r="G12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="12" t="n">
@@ -2470,25 +3535,25 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="24" t="n">
+      <c r="B13" s="25" t="n">
         <v>38208.7</v>
       </c>
-      <c r="C13" s="24" t="n">
+      <c r="C13" s="25" t="n">
         <v>38487.4</v>
       </c>
-      <c r="D13" s="25" t="n">
+      <c r="D13" s="26" t="n">
         <v>60</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="7" t="n">
+      <c r="G13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="12" t="n">
@@ -2497,250 +3562,241 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="28" t="n">
+      <c r="B14" s="29" t="n">
         <v>9399</v>
       </c>
-      <c r="C14" s="28" t="n">
+      <c r="C14" s="29" t="n">
         <v>13410</v>
       </c>
-      <c r="D14" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="26" t="s">
+      <c r="D14" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="7"/>
       <c r="H14" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="31" t="n">
+      <c r="B15" s="32" t="n">
         <v>10984</v>
       </c>
-      <c r="C15" s="31" t="n">
+      <c r="C15" s="32" t="n">
         <v>11649</v>
       </c>
-      <c r="D15" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="26" t="s">
+      <c r="D15" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="7"/>
       <c r="H15" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="31" t="n">
+      <c r="B16" s="32" t="n">
         <v>7019</v>
       </c>
-      <c r="C16" s="31" t="n">
+      <c r="C16" s="32" t="n">
         <v>7611</v>
       </c>
-      <c r="D16" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="26" t="n">
+      <c r="D16" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="27" t="n">
         <v>70373</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="7"/>
       <c r="H16" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="31" t="n">
+      <c r="B17" s="32" t="n">
         <v>12930</v>
       </c>
-      <c r="C17" s="31" t="n">
+      <c r="C17" s="32" t="n">
         <v>13739</v>
       </c>
-      <c r="D17" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="26" t="n">
+      <c r="D17" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="27" t="n">
         <v>99648</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="7"/>
       <c r="H17" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="31" t="n">
+      <c r="B18" s="32" t="n">
         <v>38027</v>
       </c>
-      <c r="C18" s="31" t="n">
+      <c r="C18" s="32" t="n">
         <v>38663</v>
       </c>
-      <c r="D18" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="26" t="n">
+      <c r="D18" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="27" t="n">
         <v>98600</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="7"/>
       <c r="H18" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="31" t="n">
+      <c r="B19" s="32" t="n">
         <v>88770</v>
       </c>
-      <c r="C19" s="31" t="n">
+      <c r="C19" s="32" t="n">
         <v>89200</v>
       </c>
-      <c r="D19" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="26" t="n">
+      <c r="D19" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="27" t="n">
         <v>98517</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="7"/>
       <c r="H19" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="31" t="n">
+      <c r="B20" s="32" t="n">
         <v>49695</v>
       </c>
-      <c r="C20" s="31" t="n">
+      <c r="C20" s="32" t="n">
         <v>50442</v>
       </c>
-      <c r="D20" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="26" t="n">
+      <c r="D20" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="27" t="n">
         <v>98627</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="7"/>
       <c r="H20" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="31" t="n">
+      <c r="B21" s="32" t="n">
         <v>75230</v>
       </c>
-      <c r="C21" s="31" t="n">
+      <c r="C21" s="32" t="n">
         <v>75492</v>
       </c>
-      <c r="D21" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="26" t="n">
+      <c r="D21" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="27" t="n">
         <v>98556</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="7"/>
       <c r="H21" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="31" t="n">
+      <c r="B22" s="32" t="n">
         <v>73368</v>
       </c>
-      <c r="C22" s="31" t="n">
+      <c r="C22" s="32" t="n">
         <v>73719</v>
       </c>
-      <c r="D22" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="26" t="n">
+      <c r="D22" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="27" t="n">
         <v>98503</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="7"/>
       <c r="H22" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="31" t="n">
+      <c r="B23" s="32" t="n">
         <v>86649</v>
       </c>
-      <c r="C23" s="31" t="n">
+      <c r="C23" s="32" t="n">
         <v>87387</v>
       </c>
-      <c r="D23" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="26" t="n">
+      <c r="D23" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="27" t="n">
         <v>98630</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="7" t="n">
+      <c r="G23" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H23" s="12" t="n">
@@ -2749,25 +3805,25 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="31" t="n">
+      <c r="B24" s="32" t="n">
         <v>78977</v>
       </c>
-      <c r="C24" s="31" t="n">
+      <c r="C24" s="32" t="n">
         <v>79639</v>
       </c>
-      <c r="D24" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="26" t="s">
+      <c r="D24" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="7" t="n">
+      <c r="G24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H24" s="12" t="n">
@@ -2776,225 +3832,217 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="31" t="n">
+      <c r="B25" s="32" t="n">
         <v>19403</v>
       </c>
-      <c r="C25" s="31" t="n">
+      <c r="C25" s="32" t="n">
         <v>19403</v>
       </c>
-      <c r="D25" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="26" t="n">
+      <c r="D25" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="27" t="n">
         <v>8726</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="7"/>
       <c r="H25" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="31" t="n">
+      <c r="B26" s="32" t="n">
         <v>139337</v>
       </c>
-      <c r="C26" s="31" t="n">
+      <c r="C26" s="32" t="n">
         <v>140669</v>
       </c>
-      <c r="D26" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="26" t="n">
+      <c r="D26" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="27" t="n">
         <v>542003</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="7"/>
       <c r="H26" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="31" t="n">
+      <c r="B27" s="32" t="n">
         <v>45346</v>
       </c>
-      <c r="C27" s="31" t="n">
+      <c r="C27" s="32" t="n">
         <v>45678</v>
       </c>
-      <c r="D27" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="26" t="n">
+      <c r="D27" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="27" t="n">
         <v>100986</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="7"/>
       <c r="H27" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="31" t="n">
+      <c r="B28" s="32" t="n">
         <v>98646</v>
       </c>
-      <c r="C28" s="31" t="n">
+      <c r="C28" s="32" t="n">
         <v>99188</v>
       </c>
-      <c r="D28" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="26" t="n">
+      <c r="D28" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="27" t="n">
         <v>70386</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="7"/>
       <c r="H28" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="31" t="n">
+      <c r="B29" s="32" t="n">
         <v>58665</v>
       </c>
-      <c r="C29" s="31" t="n">
+      <c r="C29" s="32" t="n">
         <v>59123</v>
       </c>
-      <c r="D29" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="26" t="n">
+      <c r="D29" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="27" t="n">
         <v>64591</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="7"/>
       <c r="H29" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="31" t="n">
+      <c r="B30" s="32" t="n">
         <v>46050</v>
       </c>
-      <c r="C30" s="31" t="n">
+      <c r="C30" s="32" t="n">
         <v>47940</v>
       </c>
-      <c r="D30" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="26" t="n">
+      <c r="D30" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="27" t="n">
         <v>87125</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="7"/>
       <c r="H30" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="31" t="n">
+      <c r="B31" s="32" t="n">
         <v>78935</v>
       </c>
-      <c r="C31" s="31" t="n">
+      <c r="C31" s="32" t="n">
         <v>79914</v>
       </c>
-      <c r="D31" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="26" t="n">
+      <c r="D31" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="27" t="n">
         <v>87202</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G31" s="7"/>
       <c r="H31" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="31" t="n">
+      <c r="B32" s="32" t="n">
         <v>33865</v>
       </c>
-      <c r="C32" s="31" t="n">
+      <c r="C32" s="32" t="n">
         <v>33989</v>
       </c>
-      <c r="D32" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="26" t="n">
+      <c r="D32" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="27" t="n">
         <v>99475</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="7"/>
       <c r="H32" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="31" t="n">
+      <c r="B33" s="32" t="n">
         <v>58238</v>
       </c>
-      <c r="C33" s="31" t="n">
+      <c r="C33" s="32" t="n">
         <v>58512</v>
       </c>
-      <c r="D33" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="26" t="n">
+      <c r="D33" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="27" t="n">
         <v>100985</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="7" t="n">
+      <c r="G33" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H33" s="12" t="n">
@@ -3003,25 +4051,25 @@
       <c r="I33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="31" t="n">
+      <c r="B34" s="32" t="n">
         <v>33404</v>
       </c>
-      <c r="C34" s="31" t="n">
+      <c r="C34" s="32" t="n">
         <v>33543</v>
       </c>
-      <c r="D34" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="26" t="n">
+      <c r="D34" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="27" t="n">
         <v>100839</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="7" t="n">
+      <c r="G34" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H34" s="12" t="n">
@@ -3030,50 +4078,49 @@
       <c r="I34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="31" t="n">
+      <c r="B35" s="32" t="n">
         <v>24018</v>
       </c>
-      <c r="C35" s="31" t="n">
+      <c r="C35" s="32" t="n">
         <v>24155</v>
       </c>
-      <c r="D35" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="26" t="n">
+      <c r="D35" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="27" t="n">
         <v>100976</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="7"/>
       <c r="H35" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="31" t="n">
+      <c r="B36" s="32" t="n">
         <v>41908</v>
       </c>
-      <c r="C36" s="31" t="n">
+      <c r="C36" s="32" t="n">
         <v>42134</v>
       </c>
-      <c r="D36" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="26" t="n">
+      <c r="D36" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="27" t="n">
         <v>99491</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="7" t="n">
+      <c r="G36" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H36" s="12" t="n">
@@ -3082,25 +4129,25 @@
       <c r="I36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="31" t="n">
+      <c r="B37" s="32" t="n">
         <v>33875</v>
       </c>
-      <c r="C37" s="31" t="n">
+      <c r="C37" s="32" t="n">
         <v>34069</v>
       </c>
-      <c r="D37" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="26" t="n">
+      <c r="D37" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="27" t="n">
         <v>99470</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="7" t="n">
+      <c r="G37" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H37" s="12" t="n">
@@ -3109,825 +4156,793 @@
       <c r="I37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="31" t="n">
+      <c r="B38" s="32" t="n">
         <v>31988</v>
       </c>
-      <c r="C38" s="31" t="n">
+      <c r="C38" s="32" t="n">
         <v>32193</v>
       </c>
-      <c r="D38" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="26" t="n">
+      <c r="D38" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="27" t="n">
         <v>99541</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="7"/>
       <c r="H38" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="31" t="n">
+      <c r="B39" s="32" t="n">
         <v>30575</v>
       </c>
-      <c r="C39" s="31" t="n">
+      <c r="C39" s="32" t="n">
         <v>30759</v>
       </c>
-      <c r="D39" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="26" t="n">
+      <c r="D39" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="27" t="n">
         <v>99680</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="G39" s="7"/>
       <c r="H39" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="31" t="n">
+      <c r="B40" s="32" t="n">
         <v>66541</v>
       </c>
-      <c r="C40" s="31" t="n">
+      <c r="C40" s="32" t="n">
         <v>66861</v>
       </c>
-      <c r="D40" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="26" t="n">
+      <c r="D40" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="27" t="n">
         <v>100829</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G40" s="7"/>
       <c r="H40" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="31" t="n">
+      <c r="B41" s="32" t="n">
         <v>60067</v>
       </c>
-      <c r="C41" s="31" t="n">
+      <c r="C41" s="32" t="n">
         <v>60793</v>
       </c>
-      <c r="D41" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="26" t="n">
+      <c r="D41" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="27" t="n">
         <v>100980</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="G41" s="7"/>
       <c r="H41" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="31" t="n">
+      <c r="B42" s="32" t="n">
         <v>46892</v>
       </c>
-      <c r="C42" s="31" t="n">
+      <c r="C42" s="32" t="n">
         <v>47410</v>
       </c>
-      <c r="D42" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="26" t="s">
+      <c r="D42" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="7"/>
       <c r="H42" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="31" t="n">
+      <c r="B43" s="32" t="n">
         <v>8449</v>
       </c>
-      <c r="C43" s="31" t="n">
+      <c r="C43" s="32" t="n">
         <v>8805</v>
       </c>
-      <c r="D43" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="26" t="s">
+      <c r="D43" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="7"/>
       <c r="H43" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="31" t="n">
+      <c r="B44" s="32" t="n">
         <v>68751</v>
       </c>
-      <c r="C44" s="31" t="n">
+      <c r="C44" s="32" t="n">
         <v>68891</v>
       </c>
-      <c r="D44" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="26" t="n">
+      <c r="D44" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="27" t="n">
         <v>492735</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="7"/>
       <c r="H44" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="31" t="n">
+      <c r="B45" s="32" t="n">
         <v>3789</v>
       </c>
-      <c r="C45" s="31" t="n">
+      <c r="C45" s="32" t="n">
         <v>4120</v>
       </c>
-      <c r="D45" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="26" t="n">
+      <c r="D45" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="27" t="n">
         <v>77006572</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G45" s="7"/>
       <c r="H45" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="31" t="n">
+      <c r="B46" s="32" t="n">
         <v>88320</v>
       </c>
-      <c r="C46" s="31" t="n">
+      <c r="C46" s="32" t="n">
         <v>88755</v>
       </c>
-      <c r="D46" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="26" t="n">
+      <c r="D46" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="27" t="n">
         <v>503440</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G46" s="7"/>
       <c r="H46" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="31" t="n">
+      <c r="B47" s="32" t="n">
         <v>54708</v>
       </c>
-      <c r="C47" s="31" t="n">
+      <c r="C47" s="32" t="n">
         <v>54918</v>
       </c>
-      <c r="D47" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="26" t="n">
+      <c r="D47" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="27" t="n">
         <v>492892</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="F47" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="7"/>
       <c r="H47" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="31" t="n">
+      <c r="B48" s="32" t="n">
         <v>36691</v>
       </c>
-      <c r="C48" s="31" t="n">
+      <c r="C48" s="32" t="n">
         <v>36876</v>
       </c>
-      <c r="D48" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="26" t="n">
+      <c r="D48" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="27" t="n">
         <v>503014</v>
       </c>
-      <c r="F48" s="38" t="s">
+      <c r="F48" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="7"/>
       <c r="H48" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="28" t="n">
+      <c r="B49" s="29" t="n">
         <v>35917</v>
       </c>
-      <c r="C49" s="28" t="n">
+      <c r="C49" s="29" t="n">
         <v>36202</v>
       </c>
-      <c r="D49" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="26" t="n">
+      <c r="D49" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="27" t="n">
         <v>88031383</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="G49" s="7"/>
       <c r="H49" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="31" t="n">
+      <c r="B50" s="32" t="n">
         <v>29241</v>
       </c>
-      <c r="C50" s="31" t="n">
+      <c r="C50" s="32" t="n">
         <v>29399</v>
       </c>
-      <c r="D50" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="26" t="n">
+      <c r="D50" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="27" t="n">
         <v>16596</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="F50" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G50" s="7"/>
       <c r="H50" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="31" t="n">
+      <c r="B51" s="32" t="n">
         <v>42279</v>
       </c>
-      <c r="C51" s="31" t="n">
+      <c r="C51" s="32" t="n">
         <v>42473</v>
       </c>
-      <c r="D51" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="26" t="n">
+      <c r="D51" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="27" t="n">
         <v>88031436</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="F51" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="G51" s="7"/>
       <c r="H51" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="39" t="n">
+      <c r="B52" s="40" t="n">
         <v>62029</v>
       </c>
-      <c r="C52" s="39" t="n">
+      <c r="C52" s="40" t="n">
         <v>62881</v>
       </c>
-      <c r="D52" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="26" t="n">
+      <c r="D52" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="27" t="n">
         <v>88031413</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="G52" s="7"/>
       <c r="H52" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="40" t="n">
+      <c r="B53" s="41" t="n">
         <v>37224</v>
       </c>
-      <c r="C53" s="40" t="n">
+      <c r="C53" s="41" t="n">
         <v>39230</v>
       </c>
-      <c r="D53" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="22" t="s">
+      <c r="D53" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="G53" s="7"/>
       <c r="H53" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="31" t="n">
+      <c r="B54" s="32" t="n">
         <v>38589</v>
       </c>
-      <c r="C54" s="31" t="n">
+      <c r="C54" s="32" t="n">
         <v>38589</v>
       </c>
-      <c r="D54" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="26" t="n">
+      <c r="D54" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="27" t="n">
         <v>4369</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F54" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G54" s="7"/>
       <c r="H54" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="31" t="n">
+      <c r="B55" s="32" t="n">
         <v>36462</v>
       </c>
-      <c r="C55" s="31" t="n">
+      <c r="C55" s="32" t="n">
         <v>36462</v>
       </c>
-      <c r="D55" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="26" t="n">
+      <c r="D55" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="27" t="n">
         <v>1400</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="G55" s="7"/>
       <c r="H55" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="31" t="n">
+      <c r="B56" s="32" t="n">
         <v>43342</v>
       </c>
-      <c r="C56" s="31" t="n">
+      <c r="C56" s="32" t="n">
         <v>43342</v>
       </c>
-      <c r="D56" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="26" t="n">
+      <c r="D56" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="27" t="n">
         <v>2328</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="F56" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="7"/>
       <c r="H56" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="31" t="n">
+      <c r="B57" s="32" t="n">
         <v>77142</v>
       </c>
-      <c r="C57" s="31" t="n">
+      <c r="C57" s="32" t="n">
         <v>77142</v>
       </c>
-      <c r="D57" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="26" t="n">
+      <c r="D57" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="27" t="n">
         <v>6910</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="F57" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="G57" s="7"/>
       <c r="H57" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="31" t="n">
+      <c r="B58" s="32" t="n">
         <v>8514</v>
       </c>
-      <c r="C58" s="31" t="n">
+      <c r="C58" s="32" t="n">
         <v>8628</v>
       </c>
-      <c r="D58" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="26" t="s">
+      <c r="D58" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="G58" s="7"/>
       <c r="H58" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="31" t="n">
+      <c r="B59" s="32" t="n">
         <v>25281</v>
       </c>
-      <c r="C59" s="31" t="n">
+      <c r="C59" s="32" t="n">
         <v>25757</v>
       </c>
-      <c r="D59" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="26" t="s">
+      <c r="D59" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="G59" s="7"/>
       <c r="H59" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="31" t="n">
+      <c r="B60" s="32" t="n">
         <v>7086</v>
       </c>
-      <c r="C60" s="31" t="n">
+      <c r="C60" s="32" t="n">
         <v>7086</v>
       </c>
-      <c r="D60" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="26" t="s">
+      <c r="D60" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="F60" s="23" t="s">
+      <c r="F60" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G60" s="7"/>
       <c r="H60" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="31" t="n">
+      <c r="B61" s="32" t="n">
         <v>38387</v>
       </c>
-      <c r="C61" s="31" t="n">
+      <c r="C61" s="32" t="n">
         <v>38561</v>
       </c>
-      <c r="D61" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="26" t="s">
+      <c r="D61" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F61" s="23" t="s">
+      <c r="F61" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="G61" s="7"/>
       <c r="H61" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="31" t="n">
+      <c r="B62" s="32" t="n">
         <v>4854</v>
       </c>
-      <c r="C62" s="31" t="n">
+      <c r="C62" s="32" t="n">
         <v>5035</v>
       </c>
-      <c r="D62" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="26" t="s">
+      <c r="D62" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="23" t="s">
+      <c r="F62" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G62" s="7"/>
       <c r="H62" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B63" s="31" t="n">
+      <c r="B63" s="32" t="n">
         <v>22423</v>
       </c>
-      <c r="C63" s="31" t="n">
+      <c r="C63" s="32" t="n">
         <v>22448</v>
       </c>
-      <c r="D63" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" s="26" t="n">
+      <c r="D63" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="27" t="n">
         <v>530958</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G63" s="7"/>
       <c r="H63" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B64" s="31" t="n">
+      <c r="B64" s="32" t="n">
         <v>19214</v>
       </c>
-      <c r="C64" s="31" t="n">
+      <c r="C64" s="32" t="n">
         <v>19428</v>
       </c>
-      <c r="D64" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="26" t="n">
+      <c r="D64" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="27" t="n">
         <v>607637</v>
       </c>
-      <c r="F64" s="23" t="s">
+      <c r="F64" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="G64" s="7"/>
       <c r="H64" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B65" s="31" t="n">
+      <c r="B65" s="32" t="n">
         <v>14491</v>
       </c>
-      <c r="C65" s="31" t="n">
+      <c r="C65" s="32" t="n">
         <v>14715</v>
       </c>
-      <c r="D65" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="26" t="n">
+      <c r="D65" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="27" t="n">
         <v>56067</v>
       </c>
-      <c r="F65" s="23" t="s">
+      <c r="F65" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="G65" s="7"/>
       <c r="H65" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="B66" s="42" t="n">
+      <c r="B66" s="43" t="n">
         <v>35868.2</v>
       </c>
-      <c r="C66" s="42" t="n">
+      <c r="C66" s="43" t="n">
         <v>36255.7</v>
       </c>
-      <c r="D66" s="32" t="n">
+      <c r="D66" s="33" t="n">
         <v>40</v>
       </c>
-      <c r="E66" s="26" t="n">
+      <c r="E66" s="27" t="n">
         <v>1535390</v>
       </c>
-      <c r="F66" s="23" t="s">
+      <c r="F66" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="G66" s="7"/>
       <c r="H66" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="B67" s="43" t="n">
+      <c r="B67" s="44" t="n">
         <v>1408.41</v>
       </c>
-      <c r="C67" s="43" t="n">
+      <c r="C67" s="44" t="n">
         <v>1704.92</v>
       </c>
-      <c r="D67" s="43" t="n">
+      <c r="D67" s="44" t="n">
         <v>50</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="E67" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="F67" s="23" t="s">
+      <c r="F67" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="G67" s="7"/>
       <c r="H67" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="B68" s="44" t="n">
+      <c r="B68" s="45" t="n">
         <v>821928</v>
       </c>
-      <c r="C68" s="44" t="n">
+      <c r="C68" s="45" t="n">
         <v>821928</v>
       </c>
-      <c r="D68" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="26" t="n">
+      <c r="D68" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="27" t="n">
         <v>399479</v>
       </c>
-      <c r="F68" s="23" t="s">
+      <c r="F68" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="G68" s="7"/>
       <c r="H68" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="45" t="n">
+      <c r="B69" s="46" t="n">
         <v>53229</v>
       </c>
-      <c r="C69" s="45" t="n">
+      <c r="C69" s="46" t="n">
         <v>53775</v>
       </c>
-      <c r="D69" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" s="26" t="s">
+      <c r="D69" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F69" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G69" s="7"/>
       <c r="H69" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="46" t="s">
+      <c r="A70" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="31" t="n">
+      <c r="B70" s="32" t="n">
         <v>75069</v>
       </c>
-      <c r="C70" s="31" t="n">
+      <c r="C70" s="32" t="n">
         <v>76050</v>
       </c>
-      <c r="D70" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="26" t="s">
+      <c r="D70" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="F70" s="23" t="s">
+      <c r="F70" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="G70" s="7" t="n">
+      <c r="G70" s="1" t="n">
         <v>11</v>
       </c>
       <c r="H70" s="12" t="n">
@@ -3936,75 +4951,73 @@
       <c r="I70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="B71" s="31" t="n">
+      <c r="B71" s="32" t="n">
         <v>24907</v>
       </c>
-      <c r="C71" s="31" t="n">
+      <c r="C71" s="32" t="n">
         <v>25207</v>
       </c>
-      <c r="D71" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" s="26" t="s">
+      <c r="D71" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="F71" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="G71" s="7"/>
       <c r="H71" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B72" s="31" t="n">
+      <c r="B72" s="32" t="n">
         <v>4780</v>
       </c>
-      <c r="C72" s="31" t="n">
+      <c r="C72" s="32" t="n">
         <v>6160</v>
       </c>
-      <c r="D72" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" s="26" t="s">
+      <c r="D72" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="G72" s="7"/>
       <c r="H72" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="47" t="s">
+      <c r="A73" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B73" s="48" t="n">
+      <c r="B73" s="49" t="n">
         <v>27409.8</v>
       </c>
-      <c r="C73" s="48" t="n">
+      <c r="C73" s="49" t="n">
         <v>27753.2</v>
       </c>
-      <c r="D73" s="31" t="n">
+      <c r="D73" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="E73" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="F73" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="G73" s="7" t="n">
+      <c r="G73" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H73" s="12" t="n">
@@ -4013,25 +5026,25 @@
       <c r="I73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="47" t="s">
+      <c r="A74" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="31" t="n">
+      <c r="B74" s="32" t="n">
         <v>1204</v>
       </c>
-      <c r="C74" s="31" t="n">
+      <c r="C74" s="32" t="n">
         <v>5258</v>
       </c>
-      <c r="D74" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" s="26" t="s">
+      <c r="D74" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="F74" s="23" t="s">
+      <c r="F74" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="G74" s="7" t="n">
+      <c r="G74" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H74" s="12" t="n">
@@ -4040,175 +5053,169 @@
       <c r="I74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="31" t="n">
+      <c r="B75" s="32" t="n">
         <v>89022</v>
       </c>
-      <c r="C75" s="31" t="n">
+      <c r="C75" s="32" t="n">
         <v>90700</v>
       </c>
-      <c r="D75" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" s="26" t="s">
+      <c r="D75" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="F75" s="23" t="s">
+      <c r="F75" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="G75" s="7"/>
       <c r="H75" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B76" s="31" t="n">
+      <c r="B76" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="C76" s="31" t="n">
+      <c r="C76" s="32" t="n">
         <v>2585</v>
       </c>
-      <c r="D76" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" s="26" t="s">
+      <c r="D76" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="F76" s="23" t="s">
+      <c r="F76" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="G76" s="7"/>
       <c r="H76" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="49" t="s">
+      <c r="A77" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="B77" s="40" t="n">
+      <c r="B77" s="41" t="n">
         <v>23792</v>
       </c>
-      <c r="C77" s="40" t="n">
+      <c r="C77" s="41" t="n">
         <v>24138</v>
       </c>
-      <c r="D77" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77" s="26" t="s">
+      <c r="D77" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="F77" s="23" t="s">
+      <c r="F77" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="G77" s="7"/>
       <c r="H77" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="49" t="s">
+      <c r="A78" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="B78" s="40" t="n">
+      <c r="B78" s="41" t="n">
         <v>6104</v>
       </c>
-      <c r="C78" s="40" t="n">
+      <c r="C78" s="41" t="n">
         <v>6404</v>
       </c>
-      <c r="D78" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" s="26" t="s">
+      <c r="D78" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="F78" s="23" t="s">
+      <c r="F78" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G78" s="7"/>
       <c r="H78" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="50" t="s">
+      <c r="A79" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="B79" s="40" t="n">
+      <c r="B79" s="41" t="n">
         <v>14523</v>
       </c>
-      <c r="C79" s="40" t="n">
+      <c r="C79" s="41" t="n">
         <v>14812</v>
       </c>
-      <c r="D79" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="51" t="s">
+      <c r="D79" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="F79" s="23" t="s">
+      <c r="F79" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="G79" s="7"/>
       <c r="H79" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="52" t="s">
+      <c r="A80" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="B80" s="31" t="n">
+      <c r="B80" s="32" t="n">
         <v>81894</v>
       </c>
-      <c r="C80" s="31" t="n">
+      <c r="C80" s="32" t="n">
         <v>83027</v>
       </c>
-      <c r="D80" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" s="26" t="s">
+      <c r="D80" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="F80" s="23" t="s">
+      <c r="F80" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="G80" s="7"/>
       <c r="H80" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B81" s="45" t="n">
+      <c r="B81" s="46" t="n">
         <v>60370</v>
       </c>
-      <c r="C81" s="45" t="n">
+      <c r="C81" s="46" t="n">
         <v>61379</v>
       </c>
-      <c r="D81" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" s="26" t="s">
+      <c r="D81" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="F81" s="23" t="s">
+      <c r="F81" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="G81" s="7" t="n">
+      <c r="G81" s="1" t="n">
         <v>12</v>
       </c>
       <c r="H81" s="12" t="n">
@@ -4217,150 +5224,145 @@
       <c r="I81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="B82" s="31" t="n">
+      <c r="B82" s="32" t="n">
         <v>28345</v>
       </c>
-      <c r="C82" s="31" t="n">
+      <c r="C82" s="32" t="n">
         <v>28599</v>
       </c>
-      <c r="D82" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" s="26" t="s">
+      <c r="D82" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="F82" s="23" t="s">
+      <c r="F82" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="G82" s="7"/>
       <c r="H82" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="B83" s="31" t="n">
+      <c r="B83" s="32" t="n">
         <v>85282</v>
       </c>
-      <c r="C83" s="31" t="n">
+      <c r="C83" s="32" t="n">
         <v>86347</v>
       </c>
-      <c r="D83" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" s="26" t="s">
+      <c r="D83" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="F83" s="23" t="s">
+      <c r="F83" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="G83" s="7"/>
       <c r="H83" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="B84" s="31" t="n">
+      <c r="B84" s="32" t="n">
         <v>117007</v>
       </c>
-      <c r="C84" s="31" t="n">
+      <c r="C84" s="32" t="n">
         <v>118238</v>
       </c>
-      <c r="D84" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" s="26" t="s">
+      <c r="D84" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="F84" s="23" t="s">
+      <c r="F84" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="G84" s="7"/>
       <c r="H84" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="B85" s="53" t="n">
+      <c r="B85" s="54" t="n">
         <v>23282</v>
       </c>
-      <c r="C85" s="53" t="n">
+      <c r="C85" s="54" t="n">
         <v>24254</v>
       </c>
-      <c r="D85" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" s="26" t="n">
+      <c r="D85" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="27" t="n">
         <v>34431</v>
       </c>
-      <c r="F85" s="23" t="s">
+      <c r="F85" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="G85" s="7"/>
       <c r="H85" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="54" t="s">
+      <c r="A86" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="B86" s="53" t="n">
+      <c r="B86" s="54" t="n">
         <v>70972</v>
       </c>
-      <c r="C86" s="53" t="n">
+      <c r="C86" s="54" t="n">
         <v>72276</v>
       </c>
-      <c r="D86" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" s="26" t="s">
+      <c r="D86" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="F86" s="23" t="s">
+      <c r="F86" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="G86" s="7"/>
       <c r="H86" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="30" t="s">
+      <c r="A87" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="53" t="n">
+      <c r="B87" s="54" t="n">
         <v>34953</v>
       </c>
-      <c r="C87" s="53" t="n">
+      <c r="C87" s="54" t="n">
         <v>35623</v>
       </c>
-      <c r="D87" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" s="22" t="s">
+      <c r="D87" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F87" s="23" t="s">
+      <c r="F87" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G87" s="7" t="n">
+      <c r="G87" s="1" t="n">
         <v>11</v>
       </c>
       <c r="H87" s="12" t="n">
@@ -4372,29 +5374,28 @@
       <c r="A88" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B88" s="53" t="n">
+      <c r="B88" s="54" t="n">
         <v>40972</v>
       </c>
-      <c r="C88" s="53" t="n">
+      <c r="C88" s="54" t="n">
         <v>41826</v>
       </c>
-      <c r="D88" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" s="26" t="s">
+      <c r="D88" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="F88" s="23" t="s">
+      <c r="F88" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="G88" s="7"/>
       <c r="H88" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="54" t="s">
+      <c r="A89" s="55" t="s">
         <v>210</v>
       </c>
       <c r="B89" s="9" t="n">
@@ -4412,232 +5413,222 @@
       <c r="F89" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="G89" s="7"/>
       <c r="H89" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="55" t="s">
+      <c r="A90" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="B90" s="53" t="n">
+      <c r="B90" s="54" t="n">
         <v>80875</v>
       </c>
-      <c r="C90" s="53" t="n">
+      <c r="C90" s="54" t="n">
         <v>82377</v>
       </c>
-      <c r="D90" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" s="26" t="s">
+      <c r="D90" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="F90" s="23" t="s">
+      <c r="F90" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="G90" s="7"/>
       <c r="H90" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="B91" s="28" t="n">
+      <c r="B91" s="29" t="n">
         <v>20881</v>
       </c>
-      <c r="C91" s="28" t="n">
+      <c r="C91" s="29" t="n">
         <v>21731</v>
       </c>
-      <c r="D91" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" s="26" t="s">
+      <c r="D91" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="F91" s="23" t="s">
+      <c r="F91" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="G91" s="7"/>
       <c r="H91" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="B92" s="53" t="n">
+      <c r="B92" s="54" t="n">
         <v>69247</v>
       </c>
-      <c r="C92" s="53" t="n">
+      <c r="C92" s="54" t="n">
         <v>70396</v>
       </c>
-      <c r="D92" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" s="26" t="s">
+      <c r="D92" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F92" s="23" t="s">
+      <c r="F92" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="G92" s="7"/>
       <c r="H92" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="B93" s="53" t="n">
+      <c r="B93" s="54" t="n">
         <v>41540</v>
       </c>
-      <c r="C93" s="53" t="n">
+      <c r="C93" s="54" t="n">
         <v>42335</v>
       </c>
-      <c r="D93" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="26" t="s">
+      <c r="D93" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="F93" s="23" t="s">
+      <c r="F93" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="G93" s="7"/>
       <c r="H93" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="55" t="s">
+      <c r="A94" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="B94" s="31" t="n">
+      <c r="B94" s="32" t="n">
         <v>376906</v>
       </c>
-      <c r="C94" s="31" t="n">
+      <c r="C94" s="32" t="n">
         <v>376932</v>
       </c>
-      <c r="D94" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" s="26" t="s">
+      <c r="D94" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="F94" s="23" t="s">
+      <c r="F94" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="G94" s="7"/>
       <c r="H94" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="55" t="s">
+      <c r="A95" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B95" s="31" t="n">
+      <c r="B95" s="32" t="n">
         <v>52335</v>
       </c>
-      <c r="C95" s="31" t="n">
+      <c r="C95" s="32" t="n">
         <v>52919</v>
       </c>
-      <c r="D95" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E95" s="26" t="s">
+      <c r="D95" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="F95" s="23" t="s">
+      <c r="F95" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="G95" s="7"/>
       <c r="H95" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="30" t="s">
+      <c r="A96" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="B96" s="31" t="n">
+      <c r="B96" s="32" t="n">
         <v>19323</v>
       </c>
-      <c r="C96" s="31" t="n">
+      <c r="C96" s="32" t="n">
         <v>19323</v>
       </c>
-      <c r="D96" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" s="26" t="n">
+      <c r="D96" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="27" t="n">
         <v>282335</v>
       </c>
-      <c r="F96" s="23" t="s">
+      <c r="F96" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="G96" s="7"/>
       <c r="H96" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="56" t="s">
+      <c r="A97" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="B97" s="31" t="n">
+      <c r="B97" s="32" t="n">
         <v>92</v>
       </c>
-      <c r="C97" s="31" t="n">
+      <c r="C97" s="32" t="n">
         <v>92</v>
       </c>
-      <c r="D97" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E97" s="26" t="s">
+      <c r="D97" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="F97" s="56" t="s">
+      <c r="F97" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="G97" s="7"/>
       <c r="H97" s="12" t="n">
         <v>4</v>
       </c>
       <c r="I97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="46" t="s">
+      <c r="A98" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="B98" s="31" t="n">
+      <c r="B98" s="32" t="n">
         <v>14182</v>
       </c>
-      <c r="C98" s="31" t="n">
+      <c r="C98" s="32" t="n">
         <v>14196</v>
       </c>
-      <c r="D98" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E98" s="26" t="s">
+      <c r="D98" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="F98" s="56" t="s">
+      <c r="F98" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="G98" s="7"/>
       <c r="H98" s="12" t="n">
         <v>4</v>
       </c>
@@ -4647,1026 +5638,2726 @@
     </row>
     <row r="99" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="57"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="57"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="59"/>
       <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
       <c r="I99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="57"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
+      <c r="A100" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="B100" s="9" t="n">
+        <v>104226</v>
+      </c>
+      <c r="C100" s="9" t="n">
+        <v>106185</v>
+      </c>
+      <c r="D100" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H100" s="61" t="n">
+        <v>5</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="57"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
+      <c r="A101" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="B101" s="9" t="n">
+        <v>324990</v>
+      </c>
+      <c r="C101" s="9" t="n">
+        <v>325997</v>
+      </c>
+      <c r="D101" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F101" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="H101" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
+      <c r="A102" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B102" s="9" t="n">
+        <v>389121</v>
+      </c>
+      <c r="C102" s="9" t="n">
+        <v>398840</v>
+      </c>
+      <c r="D102" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F102" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="H102" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
+      <c r="A103" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="B103" s="9" t="n">
+        <v>13970</v>
+      </c>
+      <c r="C103" s="9" t="n">
+        <v>14366</v>
+      </c>
+      <c r="D103" s="14" t="n">
+        <v>60</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F103" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="H103" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
+      <c r="A104" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="B104" s="9" t="n">
+        <v>125764</v>
+      </c>
+      <c r="C104" s="9" t="n">
+        <v>126046</v>
+      </c>
+      <c r="D104" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F104" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="H104" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I104" s="7"/>
     </row>
     <row r="105" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
+      <c r="A105" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="B105" s="9" t="n">
+        <v>44716</v>
+      </c>
+      <c r="C105" s="9" t="n">
+        <v>45308</v>
+      </c>
+      <c r="D105" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F105" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="H105" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I105" s="7"/>
     </row>
     <row r="106" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="57"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
+      <c r="A106" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="B106" s="9" t="n">
+        <v>153727</v>
+      </c>
+      <c r="C106" s="9" t="n">
+        <v>153727</v>
+      </c>
+      <c r="D106" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" s="10" t="n">
+        <v>5006</v>
+      </c>
+      <c r="F106" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="H106" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I106" s="7"/>
     </row>
     <row r="107" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
+      <c r="A107" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="B107" s="9" t="n">
+        <v>261646</v>
+      </c>
+      <c r="C107" s="9" t="n">
+        <v>263043</v>
+      </c>
+      <c r="D107" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F107" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="H107" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I107" s="7"/>
     </row>
     <row r="108" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
+      <c r="A108" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="B108" s="9" t="n">
+        <v>4455</v>
+      </c>
+      <c r="C108" s="9" t="n">
+        <v>4840</v>
+      </c>
+      <c r="D108" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F108" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="H108" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I108" s="7"/>
     </row>
     <row r="109" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="57"/>
-      <c r="B109" s="57"/>
-      <c r="C109" s="57"/>
-      <c r="D109" s="57"/>
-      <c r="E109" s="57"/>
-      <c r="F109" s="57"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
+      <c r="A109" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="B109" s="9" t="n">
+        <v>466288</v>
+      </c>
+      <c r="C109" s="9" t="n">
+        <v>469444</v>
+      </c>
+      <c r="D109" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F109" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="H109" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I109" s="7"/>
     </row>
     <row r="110" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="57"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="57"/>
-      <c r="D110" s="57"/>
-      <c r="E110" s="57"/>
-      <c r="F110" s="57"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
+      <c r="A110" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="B110" s="9" t="n">
+        <v>555766</v>
+      </c>
+      <c r="C110" s="9" t="n">
+        <v>567192.24</v>
+      </c>
+      <c r="D110" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F110" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="H110" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I110" s="7"/>
     </row>
     <row r="111" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="57"/>
-      <c r="B111" s="57"/>
-      <c r="C111" s="57"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="57"/>
-      <c r="F111" s="57"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
+      <c r="A111" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="B111" s="68" t="n">
+        <v>57272</v>
+      </c>
+      <c r="C111" s="68" t="n">
+        <v>63279</v>
+      </c>
+      <c r="D111" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F111" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="G111" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H111" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I111" s="7"/>
     </row>
     <row r="112" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="57"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="57"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="57"/>
-      <c r="F112" s="57"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
+      <c r="A112" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="B112" s="9" t="n">
+        <v>3510</v>
+      </c>
+      <c r="C112" s="9" t="n">
+        <v>3809</v>
+      </c>
+      <c r="D112" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" s="70" t="n">
+        <v>27372</v>
+      </c>
+      <c r="F112" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="G112" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H112" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I112" s="7"/>
     </row>
     <row r="113" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="57"/>
-      <c r="B113" s="57"/>
-      <c r="C113" s="57"/>
-      <c r="D113" s="57"/>
-      <c r="E113" s="57"/>
-      <c r="F113" s="57"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
+      <c r="A113" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="B113" s="72" t="n">
+        <v>94878</v>
+      </c>
+      <c r="C113" s="72" t="n">
+        <v>96908</v>
+      </c>
+      <c r="D113" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F113" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="H113" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="57"/>
-      <c r="B114" s="57"/>
-      <c r="C114" s="57"/>
-      <c r="D114" s="57"/>
-      <c r="E114" s="57"/>
-      <c r="F114" s="57"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
+      <c r="A114" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="B114" s="9" t="n">
+        <v>40906</v>
+      </c>
+      <c r="C114" s="9" t="n">
+        <v>41740</v>
+      </c>
+      <c r="D114" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" s="10" t="n">
+        <v>101522115</v>
+      </c>
+      <c r="F114" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="H114" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I114" s="7"/>
     </row>
     <row r="115" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="57"/>
-      <c r="B115" s="57"/>
-      <c r="C115" s="57"/>
-      <c r="D115" s="57"/>
-      <c r="E115" s="57"/>
-      <c r="F115" s="57"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
+      <c r="A115" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="B115" s="9" t="n">
+        <v>20218</v>
+      </c>
+      <c r="C115" s="9" t="n">
+        <v>20615</v>
+      </c>
+      <c r="D115" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F115" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="H115" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I115" s="7"/>
     </row>
     <row r="116" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="57"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="57"/>
-      <c r="D116" s="57"/>
-      <c r="E116" s="57"/>
-      <c r="F116" s="57"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
+      <c r="A116" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B116" s="9" t="n">
+        <v>27526</v>
+      </c>
+      <c r="C116" s="9" t="n">
+        <v>27856</v>
+      </c>
+      <c r="D116" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F116" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="H116" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="57"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="57"/>
-      <c r="D117" s="57"/>
-      <c r="E117" s="57"/>
-      <c r="F117" s="57"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
+      <c r="A117" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="B117" s="9" t="n">
+        <v>251227</v>
+      </c>
+      <c r="C117" s="9" t="n">
+        <v>252647</v>
+      </c>
+      <c r="D117" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F117" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="H117" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I117" s="7"/>
     </row>
     <row r="118" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="57"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="57"/>
-      <c r="D118" s="57"/>
-      <c r="E118" s="57"/>
-      <c r="F118" s="57"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
+      <c r="A118" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="B118" s="9" t="n">
+        <v>399994</v>
+      </c>
+      <c r="C118" s="9" t="n">
+        <v>399994</v>
+      </c>
+      <c r="D118" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F118" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="H118" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I118" s="7"/>
     </row>
     <row r="119" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="57"/>
-      <c r="B119" s="57"/>
-      <c r="C119" s="57"/>
-      <c r="D119" s="57"/>
-      <c r="E119" s="57"/>
-      <c r="F119" s="57"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
+      <c r="A119" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="B119" s="9" t="n">
+        <v>80795</v>
+      </c>
+      <c r="C119" s="9" t="n">
+        <v>80795</v>
+      </c>
+      <c r="D119" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F119" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="H119" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I119" s="7"/>
     </row>
     <row r="120" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="57"/>
-      <c r="B120" s="57"/>
-      <c r="C120" s="57"/>
-      <c r="D120" s="57"/>
-      <c r="E120" s="57"/>
-      <c r="F120" s="57"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
+      <c r="A120" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="B120" s="9" t="n">
+        <v>201518</v>
+      </c>
+      <c r="C120" s="9" t="n">
+        <v>202030</v>
+      </c>
+      <c r="D120" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F120" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="H120" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I120" s="7"/>
     </row>
     <row r="121" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="57"/>
-      <c r="B121" s="57"/>
-      <c r="C121" s="57"/>
-      <c r="D121" s="57"/>
-      <c r="E121" s="57"/>
-      <c r="F121" s="57"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
+      <c r="A121" s="62" t="s">
+        <v>296</v>
+      </c>
+      <c r="B121" s="9" t="n">
+        <v>348441</v>
+      </c>
+      <c r="C121" s="9" t="n">
+        <v>349365</v>
+      </c>
+      <c r="D121" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F121" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="H121" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I121" s="7"/>
     </row>
     <row r="122" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="57"/>
-      <c r="B122" s="57"/>
-      <c r="C122" s="57"/>
-      <c r="D122" s="57"/>
-      <c r="E122" s="57"/>
-      <c r="F122" s="57"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
+      <c r="A122" s="62" t="s">
+        <v>299</v>
+      </c>
+      <c r="B122" s="9" t="n">
+        <v>290045</v>
+      </c>
+      <c r="C122" s="9" t="n">
+        <v>292010</v>
+      </c>
+      <c r="D122" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F122" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="G122" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="H122" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I122" s="7"/>
     </row>
     <row r="123" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="57"/>
-      <c r="B123" s="57"/>
-      <c r="C123" s="57"/>
-      <c r="D123" s="57"/>
-      <c r="E123" s="57"/>
-      <c r="F123" s="57"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
+      <c r="A123" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="B123" s="9" t="n">
+        <v>392079</v>
+      </c>
+      <c r="C123" s="9" t="n">
+        <v>392079</v>
+      </c>
+      <c r="D123" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" s="10" t="n">
+        <v>806</v>
+      </c>
+      <c r="F123" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="H123" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I123" s="7"/>
     </row>
     <row r="124" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="57"/>
-      <c r="B124" s="57"/>
-      <c r="C124" s="57"/>
-      <c r="D124" s="57"/>
-      <c r="E124" s="57"/>
-      <c r="F124" s="57"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
+      <c r="A124" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="B124" s="9" t="n">
+        <v>134437</v>
+      </c>
+      <c r="C124" s="9" t="n">
+        <v>137279</v>
+      </c>
+      <c r="D124" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F124" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="H124" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I124" s="7"/>
     </row>
     <row r="125" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="57"/>
-      <c r="B125" s="57"/>
-      <c r="C125" s="57"/>
-      <c r="D125" s="57"/>
-      <c r="E125" s="57"/>
-      <c r="F125" s="57"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
+      <c r="A125" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="B125" s="9" t="n">
+        <v>29110</v>
+      </c>
+      <c r="C125" s="9" t="n">
+        <v>29110</v>
+      </c>
+      <c r="D125" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" s="10" t="n">
+        <v>2125</v>
+      </c>
+      <c r="F125" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="H125" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I125" s="7"/>
     </row>
     <row r="126" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="57"/>
-      <c r="B126" s="57"/>
-      <c r="C126" s="57"/>
-      <c r="D126" s="57"/>
-      <c r="E126" s="57"/>
-      <c r="F126" s="57"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
+      <c r="A126" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="B126" s="9" t="n">
+        <v>87208</v>
+      </c>
+      <c r="C126" s="9" t="n">
+        <v>88042</v>
+      </c>
+      <c r="D126" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F126" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="H126" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I126" s="7"/>
     </row>
     <row r="127" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="57"/>
-      <c r="B127" s="57"/>
-      <c r="C127" s="57"/>
-      <c r="D127" s="57"/>
-      <c r="E127" s="57"/>
-      <c r="F127" s="57"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
+      <c r="A127" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="B127" s="9" t="n">
+        <v>294374</v>
+      </c>
+      <c r="C127" s="9" t="n">
+        <v>295270</v>
+      </c>
+      <c r="D127" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F127" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="H127" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I127" s="7"/>
     </row>
     <row r="128" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="57"/>
-      <c r="B128" s="57"/>
-      <c r="C128" s="57"/>
-      <c r="D128" s="57"/>
-      <c r="E128" s="57"/>
-      <c r="F128" s="57"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
+      <c r="A128" s="62" t="s">
+        <v>315</v>
+      </c>
+      <c r="B128" s="9" t="n">
+        <v>22763</v>
+      </c>
+      <c r="C128" s="9" t="n">
+        <v>23477</v>
+      </c>
+      <c r="D128" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F128" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="H128" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I128" s="7"/>
     </row>
     <row r="129" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="57"/>
-      <c r="B129" s="57"/>
-      <c r="C129" s="57"/>
-      <c r="D129" s="57"/>
-      <c r="E129" s="57"/>
-      <c r="F129" s="57"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
+      <c r="A129" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B129" s="9" t="n">
+        <v>273893</v>
+      </c>
+      <c r="C129" s="9" t="n">
+        <v>282480</v>
+      </c>
+      <c r="D129" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F129" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="H129" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I129" s="7"/>
     </row>
     <row r="130" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="57"/>
-      <c r="B130" s="57"/>
-      <c r="C130" s="57"/>
-      <c r="D130" s="57"/>
-      <c r="E130" s="57"/>
-      <c r="F130" s="57"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
+      <c r="A130" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="B130" s="9" t="n">
+        <v>577804</v>
+      </c>
+      <c r="C130" s="9" t="n">
+        <v>581791</v>
+      </c>
+      <c r="D130" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" s="10" t="n">
+        <v>35821</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="H130" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I130" s="7"/>
     </row>
     <row r="131" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="57"/>
-      <c r="B131" s="57"/>
-      <c r="C131" s="57"/>
-      <c r="D131" s="57"/>
-      <c r="E131" s="57"/>
-      <c r="F131" s="57"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
+      <c r="A131" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="B131" s="9" t="n">
+        <v>31155</v>
+      </c>
+      <c r="C131" s="9" t="n">
+        <v>32002</v>
+      </c>
+      <c r="D131" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" s="10" t="n">
+        <v>103473542</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G131" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="H131" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I131" s="7"/>
     </row>
     <row r="132" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="57"/>
-      <c r="B132" s="57"/>
-      <c r="C132" s="57"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="57"/>
-      <c r="F132" s="57"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
+      <c r="A132" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="B132" s="9" t="n">
+        <v>26789</v>
+      </c>
+      <c r="C132" s="9" t="n">
+        <v>27497</v>
+      </c>
+      <c r="D132" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G132" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="H132" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I132" s="7"/>
     </row>
     <row r="133" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="57"/>
-      <c r="B133" s="57"/>
-      <c r="C133" s="57"/>
-      <c r="D133" s="57"/>
-      <c r="E133" s="57"/>
-      <c r="F133" s="57"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
+      <c r="A133" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="B133" s="9" t="n">
+        <v>46028</v>
+      </c>
+      <c r="C133" s="9" t="n">
+        <v>47078</v>
+      </c>
+      <c r="D133" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="H133" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I133" s="7"/>
     </row>
     <row r="134" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="57"/>
-      <c r="B134" s="57"/>
-      <c r="C134" s="57"/>
-      <c r="D134" s="57"/>
-      <c r="E134" s="57"/>
-      <c r="F134" s="57"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
+      <c r="A134" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="B134" s="9" t="n">
+        <v>59811</v>
+      </c>
+      <c r="C134" s="9" t="n">
+        <v>59983</v>
+      </c>
+      <c r="D134" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" s="10" t="n">
+        <v>4616</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="H134" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I134" s="7"/>
     </row>
     <row r="135" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="57"/>
-      <c r="B135" s="57"/>
-      <c r="C135" s="57"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="57"/>
-      <c r="F135" s="57"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
+      <c r="A135" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="B135" s="9" t="n">
+        <v>71117</v>
+      </c>
+      <c r="C135" s="9" t="n">
+        <v>72867</v>
+      </c>
+      <c r="D135" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H135" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I135" s="7"/>
     </row>
     <row r="136" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="57"/>
-      <c r="B136" s="57"/>
-      <c r="C136" s="57"/>
-      <c r="D136" s="57"/>
-      <c r="E136" s="57"/>
-      <c r="F136" s="57"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
+      <c r="A136" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="B136" s="9" t="n">
+        <v>73427</v>
+      </c>
+      <c r="C136" s="9" t="n">
+        <v>79338</v>
+      </c>
+      <c r="D136" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G136" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="H136" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I136" s="7"/>
     </row>
     <row r="137" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="57"/>
-      <c r="B137" s="57"/>
-      <c r="C137" s="57"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="57"/>
-      <c r="F137" s="57"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
+      <c r="A137" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="B137" s="9" t="n">
+        <v>17863</v>
+      </c>
+      <c r="C137" s="9" t="n">
+        <v>18484</v>
+      </c>
+      <c r="D137" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="H137" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="I137" s="7"/>
     </row>
     <row r="138" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="57"/>
-      <c r="B138" s="57"/>
-      <c r="C138" s="57"/>
-      <c r="D138" s="57"/>
-      <c r="E138" s="57"/>
-      <c r="F138" s="57"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
+      <c r="A138" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="B138" s="9" t="n">
+        <v>14936</v>
+      </c>
+      <c r="C138" s="9" t="n">
+        <v>16580</v>
+      </c>
+      <c r="D138" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G138" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="H138" s="61" t="n">
+        <v>5</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="57"/>
-      <c r="B139" s="57"/>
-      <c r="C139" s="57"/>
-      <c r="D139" s="57"/>
-      <c r="E139" s="57"/>
-      <c r="F139" s="57"/>
-      <c r="G139" s="7"/>
+      <c r="A139" s="59"/>
+      <c r="B139" s="59"/>
+      <c r="C139" s="59"/>
+      <c r="D139" s="59"/>
+      <c r="E139" s="59"/>
+      <c r="F139" s="59"/>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
     </row>
     <row r="140" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="57"/>
-      <c r="B140" s="57"/>
-      <c r="C140" s="57"/>
-      <c r="D140" s="57"/>
-      <c r="E140" s="57"/>
-      <c r="F140" s="57"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
+      <c r="A140" s="76" t="s">
+        <v>340</v>
+      </c>
+      <c r="B140" s="29" t="n">
+        <v>15809</v>
+      </c>
+      <c r="C140" s="29" t="n">
+        <v>16028</v>
+      </c>
+      <c r="D140" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" s="27" t="n">
+        <v>2262538</v>
+      </c>
+      <c r="F140" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="H140" s="77" t="n">
+        <v>6</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="57"/>
-      <c r="B141" s="57"/>
-      <c r="C141" s="57"/>
-      <c r="D141" s="57"/>
-      <c r="E141" s="57"/>
-      <c r="F141" s="57"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
+      <c r="A141" s="76" t="s">
+        <v>343</v>
+      </c>
+      <c r="B141" s="29" t="n">
+        <v>46181</v>
+      </c>
+      <c r="C141" s="29" t="n">
+        <v>46630</v>
+      </c>
+      <c r="D141" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" s="27" t="n">
+        <v>5521045</v>
+      </c>
+      <c r="F141" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="H141" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I141" s="7"/>
     </row>
     <row r="142" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="57"/>
-      <c r="B142" s="57"/>
-      <c r="C142" s="57"/>
-      <c r="D142" s="57"/>
-      <c r="E142" s="57"/>
-      <c r="F142" s="57"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
+      <c r="A142" s="76" t="s">
+        <v>345</v>
+      </c>
+      <c r="B142" s="29" t="n">
+        <v>38097</v>
+      </c>
+      <c r="C142" s="29" t="n">
+        <v>38457</v>
+      </c>
+      <c r="D142" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" s="27" t="n">
+        <v>2261340</v>
+      </c>
+      <c r="F142" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="H142" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I142" s="7"/>
     </row>
     <row r="143" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="57"/>
-      <c r="B143" s="57"/>
-      <c r="C143" s="57"/>
-      <c r="D143" s="57"/>
-      <c r="E143" s="57"/>
-      <c r="F143" s="57"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
+      <c r="A143" s="76" t="s">
+        <v>347</v>
+      </c>
+      <c r="B143" s="29" t="n">
+        <v>48251</v>
+      </c>
+      <c r="C143" s="29" t="n">
+        <v>48972</v>
+      </c>
+      <c r="D143" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E143" s="27" t="n">
+        <v>5510929</v>
+      </c>
+      <c r="F143" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="H143" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I143" s="7"/>
     </row>
     <row r="144" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="57"/>
-      <c r="B144" s="57"/>
-      <c r="C144" s="57"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="57"/>
-      <c r="F144" s="57"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
+      <c r="A144" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="B144" s="29" t="n">
+        <v>70246</v>
+      </c>
+      <c r="C144" s="29" t="n">
+        <v>70635</v>
+      </c>
+      <c r="D144" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" s="27" t="n">
+        <v>5511505</v>
+      </c>
+      <c r="F144" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="H144" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I144" s="7"/>
     </row>
     <row r="145" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="57"/>
-      <c r="B145" s="57"/>
-      <c r="C145" s="57"/>
-      <c r="D145" s="57"/>
-      <c r="E145" s="57"/>
-      <c r="F145" s="57"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
+      <c r="A145" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="B145" s="29" t="n">
+        <v>39798</v>
+      </c>
+      <c r="C145" s="29" t="n">
+        <v>39980</v>
+      </c>
+      <c r="D145" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" s="27" t="n">
+        <v>5510311</v>
+      </c>
+      <c r="F145" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="H145" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I145" s="7"/>
     </row>
     <row r="146" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="57"/>
-      <c r="B146" s="57"/>
-      <c r="C146" s="57"/>
-      <c r="D146" s="57"/>
-      <c r="E146" s="57"/>
-      <c r="F146" s="57"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
+      <c r="A146" s="76" t="s">
+        <v>353</v>
+      </c>
+      <c r="B146" s="29" t="n">
+        <v>50673</v>
+      </c>
+      <c r="C146" s="29" t="n">
+        <v>50943</v>
+      </c>
+      <c r="D146" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" s="27" t="n">
+        <v>5510177</v>
+      </c>
+      <c r="F146" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="H146" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I146" s="7"/>
     </row>
     <row r="147" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="57"/>
-      <c r="B147" s="57"/>
-      <c r="C147" s="57"/>
-      <c r="D147" s="57"/>
-      <c r="E147" s="57"/>
-      <c r="F147" s="57"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
+      <c r="A147" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="B147" s="29" t="n">
+        <v>90776</v>
+      </c>
+      <c r="C147" s="29" t="n">
+        <v>91084</v>
+      </c>
+      <c r="D147" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" s="27" t="n">
+        <v>2262535</v>
+      </c>
+      <c r="F147" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="H147" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I147" s="7"/>
     </row>
     <row r="148" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="57"/>
-      <c r="B148" s="57"/>
-      <c r="C148" s="57"/>
-      <c r="D148" s="57"/>
-      <c r="E148" s="57"/>
-      <c r="F148" s="57"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
+      <c r="A148" s="76" t="s">
+        <v>357</v>
+      </c>
+      <c r="B148" s="29" t="n">
+        <v>48253</v>
+      </c>
+      <c r="C148" s="29" t="n">
+        <v>49116</v>
+      </c>
+      <c r="D148" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="F148" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="H148" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I148" s="7"/>
     </row>
     <row r="149" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="57"/>
-      <c r="B149" s="57"/>
-      <c r="C149" s="57"/>
-      <c r="D149" s="57"/>
-      <c r="E149" s="57"/>
-      <c r="F149" s="57"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
+      <c r="A149" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="B149" s="29" t="n">
+        <v>321141</v>
+      </c>
+      <c r="C149" s="29" t="n">
+        <v>331592</v>
+      </c>
+      <c r="D149" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="F149" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="G149" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H149" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I149" s="7"/>
     </row>
     <row r="150" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="57"/>
-      <c r="B150" s="57"/>
-      <c r="C150" s="57"/>
-      <c r="D150" s="57"/>
-      <c r="E150" s="57"/>
-      <c r="F150" s="57"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
+      <c r="A150" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="B150" s="79" t="n">
+        <v>2187</v>
+      </c>
+      <c r="C150" s="79" t="n">
+        <v>3737</v>
+      </c>
+      <c r="D150" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="F150" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="G150" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H150" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I150" s="7"/>
     </row>
     <row r="151" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="57"/>
-      <c r="B151" s="57"/>
-      <c r="C151" s="57"/>
-      <c r="D151" s="57"/>
-      <c r="E151" s="57"/>
-      <c r="F151" s="57"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
+      <c r="A151" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="B151" s="79" t="n">
+        <v>338</v>
+      </c>
+      <c r="C151" s="79" t="n">
+        <v>345</v>
+      </c>
+      <c r="D151" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="F151" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="G151" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H151" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I151" s="7"/>
     </row>
     <row r="152" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="57"/>
-      <c r="B152" s="57"/>
-      <c r="C152" s="57"/>
-      <c r="D152" s="57"/>
-      <c r="E152" s="57"/>
-      <c r="F152" s="57"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
+      <c r="A152" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="B152" s="79" t="n">
+        <v>28981</v>
+      </c>
+      <c r="C152" s="79" t="n">
+        <v>29310</v>
+      </c>
+      <c r="D152" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" s="27" t="n">
+        <v>5510402</v>
+      </c>
+      <c r="F152" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="H152" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I152" s="7"/>
     </row>
     <row r="153" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="57"/>
-      <c r="B153" s="57"/>
-      <c r="C153" s="57"/>
-      <c r="D153" s="57"/>
-      <c r="E153" s="57"/>
-      <c r="F153" s="57"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
+      <c r="A153" s="81" t="s">
+        <v>367</v>
+      </c>
+      <c r="B153" s="79" t="n">
+        <v>39000</v>
+      </c>
+      <c r="C153" s="79" t="n">
+        <v>39308</v>
+      </c>
+      <c r="D153" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" s="27" t="n">
+        <v>5509256</v>
+      </c>
+      <c r="F153" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="H153" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I153" s="7"/>
     </row>
     <row r="154" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="57"/>
-      <c r="B154" s="57"/>
-      <c r="C154" s="57"/>
-      <c r="D154" s="57"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="57"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
+      <c r="A154" s="81" t="s">
+        <v>369</v>
+      </c>
+      <c r="B154" s="79" t="n">
+        <v>35175</v>
+      </c>
+      <c r="C154" s="79" t="n">
+        <v>35744</v>
+      </c>
+      <c r="D154" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" s="27" t="n">
+        <v>5509265</v>
+      </c>
+      <c r="F154" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="H154" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I154" s="7"/>
     </row>
     <row r="155" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="57"/>
-      <c r="B155" s="57"/>
-      <c r="C155" s="57"/>
-      <c r="D155" s="57"/>
-      <c r="E155" s="57"/>
-      <c r="F155" s="57"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
+      <c r="A155" s="81" t="s">
+        <v>371</v>
+      </c>
+      <c r="B155" s="79" t="n">
+        <v>23901</v>
+      </c>
+      <c r="C155" s="79" t="n">
+        <v>24172</v>
+      </c>
+      <c r="D155" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" s="27" t="n">
+        <v>5518342</v>
+      </c>
+      <c r="F155" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="H155" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I155" s="7"/>
     </row>
     <row r="156" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="57"/>
-      <c r="B156" s="57"/>
-      <c r="C156" s="57"/>
-      <c r="D156" s="57"/>
-      <c r="E156" s="57"/>
-      <c r="F156" s="57"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
+      <c r="A156" s="81" t="s">
+        <v>373</v>
+      </c>
+      <c r="B156" s="79" t="n">
+        <v>26649</v>
+      </c>
+      <c r="C156" s="79" t="n">
+        <v>26984</v>
+      </c>
+      <c r="D156" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" s="27" t="n">
+        <v>2262004</v>
+      </c>
+      <c r="F156" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="H156" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I156" s="7"/>
     </row>
     <row r="157" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="57"/>
-      <c r="B157" s="57"/>
-      <c r="C157" s="57"/>
-      <c r="D157" s="57"/>
-      <c r="E157" s="57"/>
-      <c r="F157" s="57"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
+      <c r="A157" s="81" t="s">
+        <v>375</v>
+      </c>
+      <c r="B157" s="79" t="n">
+        <v>24134</v>
+      </c>
+      <c r="C157" s="79" t="n">
+        <v>24511</v>
+      </c>
+      <c r="D157" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" s="27" t="n">
+        <v>2262573</v>
+      </c>
+      <c r="F157" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="H157" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I157" s="7"/>
     </row>
     <row r="158" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="57"/>
-      <c r="B158" s="57"/>
-      <c r="C158" s="57"/>
-      <c r="D158" s="57"/>
-      <c r="E158" s="57"/>
-      <c r="F158" s="57"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7"/>
+      <c r="A158" s="81" t="s">
+        <v>377</v>
+      </c>
+      <c r="B158" s="79" t="n">
+        <v>63843</v>
+      </c>
+      <c r="C158" s="79" t="n">
+        <v>64273</v>
+      </c>
+      <c r="D158" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" s="27" t="n">
+        <v>2262504</v>
+      </c>
+      <c r="F158" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="H158" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I158" s="7"/>
     </row>
     <row r="159" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="57"/>
-      <c r="B159" s="57"/>
-      <c r="C159" s="57"/>
-      <c r="D159" s="57"/>
-      <c r="E159" s="57"/>
-      <c r="F159" s="57"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
+      <c r="A159" s="81" t="s">
+        <v>379</v>
+      </c>
+      <c r="B159" s="79" t="n">
+        <v>15421</v>
+      </c>
+      <c r="C159" s="79" t="n">
+        <v>15596</v>
+      </c>
+      <c r="D159" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" s="27" t="n">
+        <v>282333</v>
+      </c>
+      <c r="F159" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="H159" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I159" s="7"/>
     </row>
     <row r="160" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="57"/>
-      <c r="B160" s="57"/>
-      <c r="C160" s="57"/>
-      <c r="D160" s="57"/>
-      <c r="E160" s="57"/>
-      <c r="F160" s="57"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="7"/>
+      <c r="A160" s="82" t="s">
+        <v>381</v>
+      </c>
+      <c r="B160" s="83" t="n">
+        <v>51370</v>
+      </c>
+      <c r="C160" s="83" t="n">
+        <v>51896</v>
+      </c>
+      <c r="D160" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" s="27" t="n">
+        <v>2261380</v>
+      </c>
+      <c r="F160" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="H160" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I160" s="7"/>
     </row>
     <row r="161" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="57"/>
-      <c r="B161" s="57"/>
-      <c r="C161" s="57"/>
-      <c r="D161" s="57"/>
-      <c r="E161" s="57"/>
-      <c r="F161" s="57"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
+      <c r="A161" s="81" t="s">
+        <v>383</v>
+      </c>
+      <c r="B161" s="79" t="n">
+        <v>42066</v>
+      </c>
+      <c r="C161" s="79" t="n">
+        <v>42066</v>
+      </c>
+      <c r="D161" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" s="27" t="n">
+        <v>3263</v>
+      </c>
+      <c r="F161" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="H161" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I161" s="7"/>
     </row>
     <row r="162" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="57"/>
-      <c r="B162" s="57"/>
-      <c r="C162" s="57"/>
-      <c r="D162" s="57"/>
-      <c r="E162" s="57"/>
-      <c r="F162" s="57"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
+      <c r="A162" s="81" t="s">
+        <v>385</v>
+      </c>
+      <c r="B162" s="79" t="n">
+        <v>964</v>
+      </c>
+      <c r="C162" s="79" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D162" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="F162" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="H162" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I162" s="7"/>
     </row>
     <row r="163" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="57"/>
-      <c r="B163" s="57"/>
-      <c r="C163" s="57"/>
-      <c r="D163" s="57"/>
-      <c r="E163" s="57"/>
-      <c r="F163" s="57"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
+      <c r="A163" s="81" t="s">
+        <v>388</v>
+      </c>
+      <c r="B163" s="79" t="n">
+        <v>11383</v>
+      </c>
+      <c r="C163" s="79" t="n">
+        <v>11800</v>
+      </c>
+      <c r="D163" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="F163" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="H163" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I163" s="7"/>
     </row>
     <row r="164" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="57"/>
-      <c r="B164" s="57"/>
-      <c r="C164" s="57"/>
-      <c r="D164" s="57"/>
-      <c r="E164" s="57"/>
-      <c r="F164" s="57"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
+      <c r="A164" s="81" t="s">
+        <v>391</v>
+      </c>
+      <c r="B164" s="79" t="n">
+        <v>110996</v>
+      </c>
+      <c r="C164" s="79" t="n">
+        <v>111567</v>
+      </c>
+      <c r="D164" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="F164" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="H164" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I164" s="7"/>
     </row>
     <row r="165" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="57"/>
-      <c r="B165" s="57"/>
-      <c r="C165" s="57"/>
-      <c r="D165" s="57"/>
-      <c r="E165" s="57"/>
-      <c r="F165" s="57"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
+      <c r="A165" s="81" t="s">
+        <v>394</v>
+      </c>
+      <c r="B165" s="79" t="n">
+        <v>261668</v>
+      </c>
+      <c r="C165" s="79" t="n">
+        <v>263574</v>
+      </c>
+      <c r="D165" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="F165" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="H165" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I165" s="7"/>
     </row>
     <row r="166" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="57"/>
-      <c r="B166" s="57"/>
-      <c r="C166" s="57"/>
-      <c r="D166" s="57"/>
-      <c r="E166" s="57"/>
-      <c r="F166" s="57"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
+      <c r="A166" s="81" t="s">
+        <v>397</v>
+      </c>
+      <c r="B166" s="79" t="n">
+        <v>73340</v>
+      </c>
+      <c r="C166" s="79" t="n">
+        <v>74824</v>
+      </c>
+      <c r="D166" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" s="27" t="n">
+        <v>2261167</v>
+      </c>
+      <c r="F166" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="H166" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I166" s="7"/>
     </row>
     <row r="167" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="57"/>
-      <c r="B167" s="57"/>
-      <c r="C167" s="57"/>
-      <c r="D167" s="57"/>
-      <c r="E167" s="57"/>
-      <c r="F167" s="57"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
+      <c r="A167" s="81" t="s">
+        <v>399</v>
+      </c>
+      <c r="B167" s="79" t="n">
+        <v>5158</v>
+      </c>
+      <c r="C167" s="79" t="n">
+        <v>5622</v>
+      </c>
+      <c r="D167" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E167" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F167" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="H167" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I167" s="7"/>
     </row>
     <row r="168" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="57"/>
-      <c r="B168" s="57"/>
-      <c r="C168" s="57"/>
-      <c r="D168" s="57"/>
-      <c r="E168" s="57"/>
-      <c r="F168" s="57"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="7"/>
+      <c r="A168" s="81" t="s">
+        <v>402</v>
+      </c>
+      <c r="B168" s="79" t="n">
+        <v>13957</v>
+      </c>
+      <c r="C168" s="79" t="n">
+        <v>14006</v>
+      </c>
+      <c r="D168" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E168" s="27" t="n">
+        <v>370293</v>
+      </c>
+      <c r="F168" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="H168" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I168" s="7"/>
     </row>
     <row r="169" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="57"/>
-      <c r="B169" s="57"/>
-      <c r="C169" s="57"/>
-      <c r="D169" s="57"/>
-      <c r="E169" s="57"/>
-      <c r="F169" s="57"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
+      <c r="A169" s="84" t="s">
+        <v>404</v>
+      </c>
+      <c r="B169" s="85" t="n">
+        <v>6544</v>
+      </c>
+      <c r="C169" s="85" t="n">
+        <v>6544</v>
+      </c>
+      <c r="D169" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E169" s="87" t="n">
+        <v>1940</v>
+      </c>
+      <c r="F169" s="88" t="s">
+        <v>405</v>
+      </c>
+      <c r="H169" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I169" s="7"/>
     </row>
     <row r="170" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="57"/>
-      <c r="B170" s="57"/>
-      <c r="C170" s="57"/>
-      <c r="D170" s="57"/>
-      <c r="E170" s="57"/>
-      <c r="F170" s="57"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
+      <c r="A170" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="B170" s="32" t="n">
+        <v>19154</v>
+      </c>
+      <c r="C170" s="32" t="n">
+        <v>19560</v>
+      </c>
+      <c r="D170" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F170" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="H170" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I170" s="7"/>
     </row>
     <row r="171" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="57"/>
-      <c r="B171" s="57"/>
-      <c r="C171" s="57"/>
-      <c r="D171" s="57"/>
-      <c r="E171" s="57"/>
-      <c r="F171" s="57"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
+      <c r="A171" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="B171" s="44" t="n">
+        <v>4649</v>
+      </c>
+      <c r="C171" s="44" t="n">
+        <v>4740</v>
+      </c>
+      <c r="D171" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F171" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="H171" s="77" t="n">
+        <v>6</v>
+      </c>
       <c r="I171" s="7"/>
     </row>
     <row r="172" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="57"/>
-      <c r="B172" s="57"/>
-      <c r="C172" s="57"/>
-      <c r="D172" s="57"/>
-      <c r="E172" s="57"/>
-      <c r="F172" s="57"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
-      <c r="I172" s="7"/>
+      <c r="A172" s="89" t="s">
+        <v>412</v>
+      </c>
+      <c r="B172" s="32" t="n">
+        <v>9676</v>
+      </c>
+      <c r="C172" s="32" t="n">
+        <v>9782</v>
+      </c>
+      <c r="D172" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="F172" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="H172" s="77" t="n">
+        <v>6</v>
+      </c>
+      <c r="I172" s="7" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="57"/>
-      <c r="B173" s="57"/>
-      <c r="C173" s="57"/>
-      <c r="D173" s="57"/>
-      <c r="E173" s="57"/>
-      <c r="F173" s="57"/>
-      <c r="G173" s="7"/>
+      <c r="A173" s="59"/>
+      <c r="B173" s="59"/>
+      <c r="C173" s="59"/>
+      <c r="D173" s="59"/>
+      <c r="E173" s="59"/>
+      <c r="F173" s="59"/>
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
     </row>
     <row r="174" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="57"/>
-      <c r="B174" s="57"/>
-      <c r="C174" s="57"/>
-      <c r="D174" s="57"/>
-      <c r="E174" s="57"/>
-      <c r="F174" s="57"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
-      <c r="I174" s="7"/>
+      <c r="A174" s="82" t="s">
+        <v>415</v>
+      </c>
+      <c r="B174" s="44" t="n">
+        <v>51705</v>
+      </c>
+      <c r="C174" s="44" t="n">
+        <v>54074</v>
+      </c>
+      <c r="D174" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="F174" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="H174" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I174" s="7" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="57"/>
-      <c r="B175" s="57"/>
-      <c r="C175" s="57"/>
-      <c r="D175" s="57"/>
-      <c r="E175" s="57"/>
-      <c r="F175" s="57"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
+      <c r="A175" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="B175" s="92" t="n">
+        <v>51435</v>
+      </c>
+      <c r="C175" s="92" t="n">
+        <v>51774</v>
+      </c>
+      <c r="D175" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="70" t="n">
+        <v>3855</v>
+      </c>
+      <c r="F175" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="G175" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H175" s="90" t="n">
+        <v>7</v>
+      </c>
       <c r="I175" s="7"/>
     </row>
     <row r="176" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="57"/>
-      <c r="B176" s="57"/>
-      <c r="C176" s="57"/>
-      <c r="D176" s="57"/>
-      <c r="E176" s="57"/>
-      <c r="F176" s="57"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
+      <c r="A176" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="B176" s="92" t="n">
+        <v>122957</v>
+      </c>
+      <c r="C176" s="92" t="n">
+        <v>127446</v>
+      </c>
+      <c r="D176" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E176" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="F176" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="G176" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H176" s="90" t="n">
+        <v>7</v>
+      </c>
       <c r="I176" s="7"/>
     </row>
     <row r="177" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="57"/>
-      <c r="B177" s="57"/>
-      <c r="C177" s="57"/>
-      <c r="D177" s="57"/>
-      <c r="E177" s="57"/>
-      <c r="F177" s="57"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
+      <c r="A177" s="81" t="s">
+        <v>422</v>
+      </c>
+      <c r="B177" s="44" t="n">
+        <v>16293</v>
+      </c>
+      <c r="C177" s="44" t="n">
+        <v>16443</v>
+      </c>
+      <c r="D177" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="F177" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="H177" s="90" t="n">
+        <v>7</v>
+      </c>
       <c r="I177" s="7"/>
     </row>
     <row r="178" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="57"/>
-      <c r="B178" s="57"/>
-      <c r="C178" s="57"/>
-      <c r="D178" s="57"/>
-      <c r="E178" s="57"/>
-      <c r="F178" s="57"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="7"/>
+      <c r="A178" s="81" t="s">
+        <v>425</v>
+      </c>
+      <c r="B178" s="44" t="n">
+        <v>19059</v>
+      </c>
+      <c r="C178" s="44" t="n">
+        <v>19322</v>
+      </c>
+      <c r="D178" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E178" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="F178" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="H178" s="90" t="n">
+        <v>7</v>
+      </c>
       <c r="I178" s="7"/>
     </row>
     <row r="179" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="57"/>
-      <c r="B179" s="57"/>
-      <c r="C179" s="57"/>
-      <c r="D179" s="57"/>
-      <c r="E179" s="57"/>
-      <c r="F179" s="57"/>
-      <c r="G179" s="7"/>
-      <c r="H179" s="7"/>
+      <c r="A179" s="81" t="s">
+        <v>428</v>
+      </c>
+      <c r="B179" s="44" t="n">
+        <v>18836</v>
+      </c>
+      <c r="C179" s="44" t="n">
+        <v>19058</v>
+      </c>
+      <c r="D179" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="F179" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="H179" s="90" t="n">
+        <v>7</v>
+      </c>
       <c r="I179" s="7"/>
     </row>
     <row r="180" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="57"/>
-      <c r="B180" s="57"/>
-      <c r="C180" s="57"/>
-      <c r="D180" s="57"/>
-      <c r="E180" s="57"/>
-      <c r="F180" s="57"/>
-      <c r="G180" s="7"/>
-      <c r="H180" s="7"/>
+      <c r="A180" s="81" t="s">
+        <v>431</v>
+      </c>
+      <c r="B180" s="44" t="n">
+        <v>22322</v>
+      </c>
+      <c r="C180" s="44" t="n">
+        <v>22590</v>
+      </c>
+      <c r="D180" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="F180" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="H180" s="90" t="n">
+        <v>7</v>
+      </c>
       <c r="I180" s="7"/>
     </row>
     <row r="181" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="57"/>
-      <c r="B181" s="57"/>
-      <c r="C181" s="57"/>
-      <c r="D181" s="57"/>
-      <c r="E181" s="57"/>
-      <c r="F181" s="57"/>
-      <c r="G181" s="7"/>
-      <c r="H181" s="7"/>
+      <c r="A181" s="81" t="s">
+        <v>434</v>
+      </c>
+      <c r="B181" s="44" t="n">
+        <v>21550</v>
+      </c>
+      <c r="C181" s="44" t="n">
+        <v>21736</v>
+      </c>
+      <c r="D181" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E181" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="F181" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="H181" s="90" t="n">
+        <v>7</v>
+      </c>
       <c r="I181" s="7"/>
     </row>
     <row r="182" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="57"/>
-      <c r="B182" s="57"/>
-      <c r="C182" s="57"/>
-      <c r="D182" s="57"/>
-      <c r="E182" s="57"/>
-      <c r="F182" s="57"/>
-      <c r="G182" s="7"/>
-      <c r="H182" s="7"/>
+      <c r="A182" s="93" t="s">
+        <v>437</v>
+      </c>
+      <c r="B182" s="44" t="n">
+        <v>38151</v>
+      </c>
+      <c r="C182" s="44" t="n">
+        <v>38729</v>
+      </c>
+      <c r="D182" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="F182" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="G182" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H182" s="90" t="n">
+        <v>7</v>
+      </c>
       <c r="I182" s="7"/>
     </row>
     <row r="183" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="57"/>
-      <c r="B183" s="57"/>
-      <c r="C183" s="57"/>
-      <c r="D183" s="57"/>
-      <c r="E183" s="57"/>
-      <c r="F183" s="57"/>
-      <c r="G183" s="7"/>
-      <c r="H183" s="7"/>
+      <c r="A183" s="93" t="s">
+        <v>437</v>
+      </c>
+      <c r="B183" s="44" t="n">
+        <v>10181</v>
+      </c>
+      <c r="C183" s="44" t="n">
+        <v>10329</v>
+      </c>
+      <c r="D183" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E183" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="F183" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="G183" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H183" s="90" t="n">
+        <v>7</v>
+      </c>
       <c r="I183" s="7"/>
     </row>
     <row r="184" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="57"/>
-      <c r="B184" s="57"/>
-      <c r="C184" s="57"/>
-      <c r="D184" s="57"/>
-      <c r="E184" s="57"/>
-      <c r="F184" s="57"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7"/>
+      <c r="A184" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="B184" s="44" t="n">
+        <v>93143</v>
+      </c>
+      <c r="C184" s="44" t="n">
+        <v>94156</v>
+      </c>
+      <c r="D184" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E184" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="F184" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="H184" s="90" t="n">
+        <v>7</v>
+      </c>
       <c r="I184" s="7"/>
     </row>
     <row r="185" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="57"/>
-      <c r="B185" s="57"/>
-      <c r="C185" s="57"/>
-      <c r="D185" s="57"/>
-      <c r="E185" s="57"/>
-      <c r="F185" s="57"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
+      <c r="A185" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="B185" s="44" t="n">
+        <v>43348</v>
+      </c>
+      <c r="C185" s="44" t="n">
+        <v>43820</v>
+      </c>
+      <c r="D185" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E185" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="F185" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="H185" s="90" t="n">
+        <v>7</v>
+      </c>
       <c r="I185" s="7"/>
     </row>
     <row r="186" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="57"/>
-      <c r="B186" s="57"/>
-      <c r="C186" s="57"/>
-      <c r="D186" s="57"/>
-      <c r="E186" s="57"/>
-      <c r="F186" s="57"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="7"/>
+      <c r="A186" s="81" t="s">
+        <v>448</v>
+      </c>
+      <c r="B186" s="44" t="n">
+        <v>9726</v>
+      </c>
+      <c r="C186" s="44" t="n">
+        <v>9805</v>
+      </c>
+      <c r="D186" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E186" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="F186" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="H186" s="90" t="n">
+        <v>7</v>
+      </c>
       <c r="I186" s="7"/>
     </row>
     <row r="187" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="57"/>
-      <c r="B187" s="57"/>
-      <c r="C187" s="57"/>
-      <c r="D187" s="57"/>
-      <c r="E187" s="57"/>
-      <c r="F187" s="57"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
+      <c r="A187" s="81" t="s">
+        <v>451</v>
+      </c>
+      <c r="B187" s="44" t="n">
+        <v>15474</v>
+      </c>
+      <c r="C187" s="44" t="n">
+        <v>15474</v>
+      </c>
+      <c r="D187" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="F187" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="H187" s="90" t="n">
+        <v>7</v>
+      </c>
       <c r="I187" s="7"/>
     </row>
     <row r="188" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="57"/>
-      <c r="B188" s="57"/>
-      <c r="C188" s="57"/>
-      <c r="D188" s="57"/>
-      <c r="E188" s="57"/>
-      <c r="F188" s="57"/>
-      <c r="G188" s="7"/>
-      <c r="H188" s="7"/>
+      <c r="A188" s="81" t="s">
+        <v>454</v>
+      </c>
+      <c r="B188" s="44" t="n">
+        <v>25574</v>
+      </c>
+      <c r="C188" s="44" t="n">
+        <v>26359</v>
+      </c>
+      <c r="D188" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="F188" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="H188" s="90" t="n">
+        <v>7</v>
+      </c>
       <c r="I188" s="7"/>
     </row>
     <row r="189" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="57"/>
-      <c r="B189" s="57"/>
-      <c r="C189" s="57"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="57"/>
-      <c r="F189" s="57"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="7"/>
+      <c r="A189" s="81" t="s">
+        <v>457</v>
+      </c>
+      <c r="B189" s="44" t="n">
+        <v>15243</v>
+      </c>
+      <c r="C189" s="44" t="n">
+        <v>16205</v>
+      </c>
+      <c r="D189" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="F189" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="H189" s="90" t="n">
+        <v>7</v>
+      </c>
       <c r="I189" s="7"/>
     </row>
     <row r="190" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="57"/>
-      <c r="B190" s="57"/>
-      <c r="C190" s="57"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="57"/>
-      <c r="F190" s="57"/>
-      <c r="G190" s="7"/>
-      <c r="H190" s="7"/>
+      <c r="A190" s="81" t="s">
+        <v>460</v>
+      </c>
+      <c r="B190" s="44" t="n">
+        <v>17615</v>
+      </c>
+      <c r="C190" s="44" t="n">
+        <v>17872</v>
+      </c>
+      <c r="D190" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="F190" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="H190" s="90" t="n">
+        <v>7</v>
+      </c>
       <c r="I190" s="7"/>
     </row>
     <row r="191" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="57"/>
-      <c r="B191" s="57"/>
-      <c r="C191" s="57"/>
-      <c r="D191" s="57"/>
-      <c r="E191" s="57"/>
-      <c r="F191" s="57"/>
-      <c r="G191" s="7"/>
-      <c r="H191" s="7"/>
+      <c r="A191" s="81" t="s">
+        <v>463</v>
+      </c>
+      <c r="B191" s="44" t="n">
+        <v>46343</v>
+      </c>
+      <c r="C191" s="44" t="n">
+        <v>46574</v>
+      </c>
+      <c r="D191" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="F191" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="H191" s="90" t="n">
+        <v>7</v>
+      </c>
       <c r="I191" s="7"/>
     </row>
+    <row r="192" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="81" t="s">
+        <v>466</v>
+      </c>
+      <c r="B192" s="44" t="n">
+        <v>25111</v>
+      </c>
+      <c r="C192" s="44" t="n">
+        <v>25470</v>
+      </c>
+      <c r="D192" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E192" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="F192" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="H192" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I192" s="7"/>
+    </row>
+    <row r="193" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="81" t="s">
+        <v>469</v>
+      </c>
+      <c r="B193" s="44" t="n">
+        <v>36546</v>
+      </c>
+      <c r="C193" s="44" t="n">
+        <v>36944</v>
+      </c>
+      <c r="D193" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="F193" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="H193" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I193" s="7"/>
+    </row>
+    <row r="194" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="81" t="s">
+        <v>472</v>
+      </c>
+      <c r="B194" s="94" t="n">
+        <v>66445</v>
+      </c>
+      <c r="C194" s="94" t="n">
+        <v>66445</v>
+      </c>
+      <c r="D194" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E194" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="F194" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="H194" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I194" s="7"/>
+    </row>
+    <row r="195" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="B195" s="32" t="n">
+        <v>77913</v>
+      </c>
+      <c r="C195" s="32" t="n">
+        <v>79199</v>
+      </c>
+      <c r="D195" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E195" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="F195" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="H195" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I195" s="7"/>
+    </row>
+    <row r="196" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="81" t="s">
+        <v>478</v>
+      </c>
+      <c r="B196" s="44" t="n">
+        <v>61833</v>
+      </c>
+      <c r="C196" s="44" t="n">
+        <v>62761</v>
+      </c>
+      <c r="D196" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E196" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="F196" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="H196" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I196" s="7"/>
+    </row>
+    <row r="197" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="81" t="s">
+        <v>481</v>
+      </c>
+      <c r="B197" s="44" t="n">
+        <v>47733</v>
+      </c>
+      <c r="C197" s="44" t="n">
+        <v>49361</v>
+      </c>
+      <c r="D197" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E197" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="F197" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H197" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I197" s="7"/>
+    </row>
+    <row r="198" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="81" t="s">
+        <v>484</v>
+      </c>
+      <c r="B198" s="44" t="n">
+        <v>57578</v>
+      </c>
+      <c r="C198" s="44" t="n">
+        <v>58187</v>
+      </c>
+      <c r="D198" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="F198" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="H198" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I198" s="7"/>
+    </row>
+    <row r="199" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="81" t="s">
+        <v>487</v>
+      </c>
+      <c r="B199" s="44" t="n">
+        <v>180914</v>
+      </c>
+      <c r="C199" s="44" t="n">
+        <v>181790</v>
+      </c>
+      <c r="D199" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="F199" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="H199" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I199" s="7"/>
+    </row>
+    <row r="200" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="81" t="s">
+        <v>490</v>
+      </c>
+      <c r="B200" s="32" t="n">
+        <v>59720</v>
+      </c>
+      <c r="C200" s="32" t="n">
+        <v>60596</v>
+      </c>
+      <c r="D200" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E200" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="F200" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="H200" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I200" s="7"/>
+    </row>
+    <row r="201" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="81" t="s">
+        <v>493</v>
+      </c>
+      <c r="B201" s="32" t="n">
+        <v>34377</v>
+      </c>
+      <c r="C201" s="32" t="n">
+        <v>34738</v>
+      </c>
+      <c r="D201" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E201" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="F201" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="H201" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I201" s="7"/>
+    </row>
+    <row r="202" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="81" t="s">
+        <v>496</v>
+      </c>
+      <c r="B202" s="32" t="n">
+        <v>17756</v>
+      </c>
+      <c r="C202" s="32" t="n">
+        <v>18124</v>
+      </c>
+      <c r="D202" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E202" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="F202" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="H202" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I202" s="7"/>
+    </row>
+    <row r="203" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="81" t="s">
+        <v>499</v>
+      </c>
+      <c r="B203" s="32" t="n">
+        <v>245588</v>
+      </c>
+      <c r="C203" s="32" t="n">
+        <v>246588</v>
+      </c>
+      <c r="D203" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E203" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="F203" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="H203" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I203" s="7"/>
+    </row>
+    <row r="204" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="81" t="s">
+        <v>502</v>
+      </c>
+      <c r="B204" s="32" t="n">
+        <v>44861</v>
+      </c>
+      <c r="C204" s="32" t="n">
+        <v>45499</v>
+      </c>
+      <c r="D204" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E204" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="F204" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="H204" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I204" s="7"/>
+    </row>
+    <row r="205" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="91" t="s">
+        <v>505</v>
+      </c>
+      <c r="B205" s="32" t="n">
+        <v>37965</v>
+      </c>
+      <c r="C205" s="32" t="n">
+        <v>39614</v>
+      </c>
+      <c r="D205" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E205" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="F205" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="G205" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H205" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I205" s="7"/>
+    </row>
+    <row r="206" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="91" t="s">
+        <v>505</v>
+      </c>
+      <c r="B206" s="32" t="n">
+        <v>29028</v>
+      </c>
+      <c r="C206" s="32" t="n">
+        <v>30930</v>
+      </c>
+      <c r="D206" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E206" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="F206" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="G206" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H206" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I206" s="7"/>
+    </row>
+    <row r="207" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="81" t="s">
+        <v>509</v>
+      </c>
+      <c r="B207" s="32" t="n">
+        <v>118529</v>
+      </c>
+      <c r="C207" s="32" t="n">
+        <v>126283</v>
+      </c>
+      <c r="D207" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E207" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="F207" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="H207" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I207" s="7"/>
+    </row>
+    <row r="208" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="81" t="s">
+        <v>512</v>
+      </c>
+      <c r="B208" s="32" t="n">
+        <v>66471</v>
+      </c>
+      <c r="C208" s="32" t="n">
+        <v>67377</v>
+      </c>
+      <c r="D208" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="F208" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="H208" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I208" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="B210" s="32" t="n">
+        <v>47195</v>
+      </c>
+      <c r="C210" s="32" t="n">
+        <v>50021</v>
+      </c>
+      <c r="D210" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E210" s="27" t="n">
+        <v>3275</v>
+      </c>
+      <c r="F210" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="H210" s="95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I210" s="96" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="76" t="s">
+        <v>518</v>
+      </c>
+      <c r="B212" s="32" t="n">
+        <v>189525</v>
+      </c>
+      <c r="C212" s="32" t="n">
+        <v>191022</v>
+      </c>
+      <c r="D212" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E212" s="27" t="n">
+        <v>3868</v>
+      </c>
+      <c r="F212" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="H212" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I212" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5708,10 +8399,10 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.85"/>
@@ -5722,39 +8413,39 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="97" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="F1" s="60"/>
+      <c r="C1" s="98" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1" s="98"/>
+      <c r="E1" s="99" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1" s="99"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>240</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>241</v>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="100" t="s">
+        <v>524</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>525</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>524</v>
+      </c>
+      <c r="F2" s="101" t="s">
+        <v>525</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -5762,23 +8453,23 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="65" t="n">
-        <v>76705</v>
-      </c>
-      <c r="D3" s="65" t="n">
+      <c r="A3" s="87" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" s="102" t="n">
         <v>77913</v>
       </c>
-      <c r="E3" s="66" t="n">
-        <v>60945</v>
-      </c>
-      <c r="F3" s="66" t="n">
+      <c r="D3" s="102" t="n">
+        <v>79199</v>
+      </c>
+      <c r="E3" s="103" t="n">
         <v>61833</v>
+      </c>
+      <c r="F3" s="103" t="n">
+        <v>62761</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -5786,23 +8477,23 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="67" t="n">
-        <v>60945</v>
-      </c>
-      <c r="D4" s="67" t="n">
+      <c r="A4" s="87" t="s">
+        <v>479</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>480</v>
+      </c>
+      <c r="C4" s="104" t="n">
         <v>61833</v>
       </c>
-      <c r="E4" s="68" t="n">
-        <v>76705</v>
-      </c>
-      <c r="F4" s="68" t="n">
+      <c r="D4" s="104" t="n">
+        <v>62761</v>
+      </c>
+      <c r="E4" s="105" t="n">
         <v>77913</v>
+      </c>
+      <c r="F4" s="105" t="n">
+        <v>79199</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -5810,33 +8501,33 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="65" t="n">
-        <v>36408</v>
-      </c>
-      <c r="D6" s="65" t="n">
+      <c r="A6" s="87" t="s">
+        <v>506</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>507</v>
+      </c>
+      <c r="C6" s="102" t="n">
         <v>37965</v>
       </c>
-      <c r="E6" s="68" t="n">
-        <v>27245</v>
-      </c>
-      <c r="F6" s="68" t="n">
+      <c r="D6" s="102" t="n">
+        <v>39614</v>
+      </c>
+      <c r="E6" s="105" t="n">
         <v>29028</v>
+      </c>
+      <c r="F6" s="105" t="n">
+        <v>30930</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -5844,23 +8535,23 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
-        <v>248</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="65" t="n">
-        <v>27245</v>
-      </c>
-      <c r="D7" s="65" t="n">
+      <c r="A7" s="87" t="s">
+        <v>508</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>507</v>
+      </c>
+      <c r="C7" s="102" t="n">
         <v>29028</v>
       </c>
-      <c r="E7" s="68" t="n">
-        <v>36408</v>
-      </c>
-      <c r="F7" s="68" t="n">
+      <c r="D7" s="102" t="n">
+        <v>30930</v>
+      </c>
+      <c r="E7" s="105" t="n">
         <v>37965</v>
+      </c>
+      <c r="F7" s="105" t="n">
+        <v>39614</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -5868,33 +8559,33 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="73" t="n">
+      <c r="A9" s="110" t="n">
         <v>3855</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="74" t="n">
-        <v>51110</v>
-      </c>
-      <c r="D9" s="74" t="n">
+      <c r="B9" s="88" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" s="111" t="n">
         <v>51435</v>
       </c>
-      <c r="E9" s="75" t="n">
-        <v>119850</v>
-      </c>
-      <c r="F9" s="75" t="n">
+      <c r="D9" s="111" t="n">
+        <v>51774</v>
+      </c>
+      <c r="E9" s="112" t="n">
         <v>122957</v>
+      </c>
+      <c r="F9" s="112" t="n">
+        <v>127446</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -5902,23 +8593,23 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="s">
-        <v>250</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="74" t="n">
-        <v>119850</v>
-      </c>
-      <c r="D10" s="74" t="n">
+      <c r="A10" s="87" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="111" t="n">
         <v>122957</v>
       </c>
-      <c r="E10" s="75" t="n">
-        <v>51110</v>
-      </c>
-      <c r="F10" s="75" t="n">
+      <c r="D10" s="111" t="n">
+        <v>127446</v>
+      </c>
+      <c r="E10" s="112" t="n">
         <v>51435</v>
+      </c>
+      <c r="F10" s="112" t="n">
+        <v>51774</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>

--- a/databases/xlsx/import_all/import 21.07.xlsx
+++ b/databases/xlsx/import_all/import 21.07.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="527">
   <si>
     <t xml:space="preserve">Организация</t>
   </si>
@@ -1210,6 +1210,9 @@
   </si>
   <si>
     <t xml:space="preserve">36398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Через цикл</t>
   </si>
   <si>
     <t xml:space="preserve">Бакши ИП</t>
@@ -2480,6 +2483,13 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <i val="true"/>
       <sz val="20"/>
       <name val="Calibri"/>
@@ -2516,13 +2526,6 @@
       <sz val="18"/>
       <name val="Arial Cyr"/>
       <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF7030A0"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -2688,7 +2691,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2889,19 +2892,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2909,14 +2916,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2953,7 +2960,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2989,7 +2996,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3025,23 +3032,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3219,15 +3226,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="L75" activeCellId="0" sqref="L75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="102.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.41"/>
@@ -3238,6 +3245,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="76.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="45.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5029,11 +5037,11 @@
       <c r="A74" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="32" t="n">
-        <v>1204</v>
-      </c>
-      <c r="C74" s="32" t="n">
-        <v>5258</v>
+      <c r="B74" s="45" t="n">
+        <v>101204</v>
+      </c>
+      <c r="C74" s="45" t="n">
+        <v>105258</v>
       </c>
       <c r="D74" s="32" t="n">
         <v>1</v>
@@ -5051,10 +5059,19 @@
         <v>4</v>
       </c>
       <c r="I74" s="7"/>
+      <c r="J74" s="32" t="n">
+        <v>1204</v>
+      </c>
+      <c r="K74" s="32" t="n">
+        <v>5258</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B75" s="32" t="n">
         <v>89022</v>
@@ -5066,10 +5083,10 @@
         <v>1</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H75" s="12" t="n">
         <v>4</v>
@@ -5078,31 +5095,40 @@
     </row>
     <row r="76" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B76" s="32" t="n">
+        <v>175</v>
+      </c>
+      <c r="B76" s="50" t="n">
+        <v>99989</v>
+      </c>
+      <c r="C76" s="32" t="n">
+        <v>102585</v>
+      </c>
+      <c r="D76" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="H76" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="C76" s="32" t="n">
+      <c r="K76" s="32" t="n">
         <v>2585</v>
       </c>
-      <c r="D76" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="F76" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="H76" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="I76" s="7"/>
+      <c r="L76" s="7" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="50" t="s">
-        <v>177</v>
+      <c r="A77" s="51" t="s">
+        <v>178</v>
       </c>
       <c r="B77" s="41" t="n">
         <v>23792</v>
@@ -5114,10 +5140,10 @@
         <v>1</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H77" s="12" t="n">
         <v>4</v>
@@ -5125,8 +5151,8 @@
       <c r="I77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="50" t="s">
-        <v>180</v>
+      <c r="A78" s="51" t="s">
+        <v>181</v>
       </c>
       <c r="B78" s="41" t="n">
         <v>6104</v>
@@ -5138,10 +5164,10 @@
         <v>1</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H78" s="12" t="n">
         <v>4</v>
@@ -5149,8 +5175,8 @@
       <c r="I78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="51" t="s">
-        <v>183</v>
+      <c r="A79" s="52" t="s">
+        <v>184</v>
       </c>
       <c r="B79" s="41" t="n">
         <v>14523</v>
@@ -5161,11 +5187,11 @@
       <c r="D79" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="E79" s="52" t="s">
-        <v>184</v>
+      <c r="E79" s="53" t="s">
+        <v>185</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H79" s="12" t="n">
         <v>4</v>
@@ -5173,8 +5199,8 @@
       <c r="I79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="53" t="s">
-        <v>186</v>
+      <c r="A80" s="54" t="s">
+        <v>187</v>
       </c>
       <c r="B80" s="32" t="n">
         <v>81894</v>
@@ -5186,10 +5212,10 @@
         <v>1</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H80" s="12" t="n">
         <v>4</v>
@@ -5198,7 +5224,7 @@
     </row>
     <row r="81" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B81" s="46" t="n">
         <v>60370</v>
@@ -5210,10 +5236,10 @@
         <v>1</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>12</v>
@@ -5225,7 +5251,7 @@
     </row>
     <row r="82" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B82" s="32" t="n">
         <v>28345</v>
@@ -5237,10 +5263,10 @@
         <v>1</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H82" s="12" t="n">
         <v>4</v>
@@ -5249,7 +5275,7 @@
     </row>
     <row r="83" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B83" s="32" t="n">
         <v>85282</v>
@@ -5261,10 +5287,10 @@
         <v>1</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H83" s="12" t="n">
         <v>4</v>
@@ -5273,7 +5299,7 @@
     </row>
     <row r="84" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B84" s="32" t="n">
         <v>117007</v>
@@ -5285,10 +5311,10 @@
         <v>1</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H84" s="12" t="n">
         <v>4</v>
@@ -5297,12 +5323,12 @@
     </row>
     <row r="85" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B85" s="54" t="n">
+        <v>201</v>
+      </c>
+      <c r="B85" s="55" t="n">
         <v>23282</v>
       </c>
-      <c r="C85" s="54" t="n">
+      <c r="C85" s="55" t="n">
         <v>24254</v>
       </c>
       <c r="D85" s="33" t="n">
@@ -5312,7 +5338,7 @@
         <v>34431</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H85" s="12" t="n">
         <v>4</v>
@@ -5320,23 +5346,23 @@
       <c r="I85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="B86" s="54" t="n">
+      <c r="A86" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" s="55" t="n">
         <v>70972</v>
       </c>
-      <c r="C86" s="54" t="n">
+      <c r="C86" s="55" t="n">
         <v>72276</v>
       </c>
       <c r="D86" s="33" t="n">
         <v>1</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H86" s="12" t="n">
         <v>4</v>
@@ -5347,20 +5373,20 @@
       <c r="A87" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="54" t="n">
+      <c r="B87" s="55" t="n">
         <v>34953</v>
       </c>
-      <c r="C87" s="54" t="n">
+      <c r="C87" s="55" t="n">
         <v>35623</v>
       </c>
       <c r="D87" s="33" t="n">
         <v>1</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>11</v>
@@ -5372,22 +5398,22 @@
     </row>
     <row r="88" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B88" s="54" t="n">
+        <v>208</v>
+      </c>
+      <c r="B88" s="55" t="n">
         <v>40972</v>
       </c>
-      <c r="C88" s="54" t="n">
+      <c r="C88" s="55" t="n">
         <v>41826</v>
       </c>
       <c r="D88" s="33" t="n">
         <v>1</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H88" s="12" t="n">
         <v>4</v>
@@ -5395,8 +5421,8 @@
       <c r="I88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="55" t="s">
-        <v>210</v>
+      <c r="A89" s="56" t="s">
+        <v>211</v>
       </c>
       <c r="B89" s="9" t="n">
         <v>66552</v>
@@ -5408,10 +5434,10 @@
         <v>1</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H89" s="12" t="n">
         <v>4</v>
@@ -5419,23 +5445,23 @@
       <c r="I89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="B90" s="54" t="n">
+      <c r="A90" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="B90" s="55" t="n">
         <v>80875</v>
       </c>
-      <c r="C90" s="54" t="n">
+      <c r="C90" s="55" t="n">
         <v>82377</v>
       </c>
       <c r="D90" s="33" t="n">
         <v>1</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H90" s="12" t="n">
         <v>4</v>
@@ -5444,7 +5470,7 @@
     </row>
     <row r="91" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B91" s="29" t="n">
         <v>20881</v>
@@ -5456,10 +5482,10 @@
         <v>1</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H91" s="12" t="n">
         <v>4</v>
@@ -5468,22 +5494,22 @@
     </row>
     <row r="92" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="B92" s="54" t="n">
+        <v>220</v>
+      </c>
+      <c r="B92" s="55" t="n">
         <v>69247</v>
       </c>
-      <c r="C92" s="54" t="n">
+      <c r="C92" s="55" t="n">
         <v>70396</v>
       </c>
       <c r="D92" s="33" t="n">
         <v>1</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H92" s="12" t="n">
         <v>4</v>
@@ -5492,22 +5518,22 @@
     </row>
     <row r="93" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="B93" s="54" t="n">
+        <v>223</v>
+      </c>
+      <c r="B93" s="55" t="n">
         <v>41540</v>
       </c>
-      <c r="C93" s="54" t="n">
+      <c r="C93" s="55" t="n">
         <v>42335</v>
       </c>
       <c r="D93" s="33" t="n">
         <v>1</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H93" s="12" t="n">
         <v>4</v>
@@ -5515,8 +5541,8 @@
       <c r="I93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="56" t="s">
-        <v>225</v>
+      <c r="A94" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="B94" s="32" t="n">
         <v>376906</v>
@@ -5528,10 +5554,10 @@
         <v>1</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H94" s="12" t="n">
         <v>4</v>
@@ -5539,8 +5565,8 @@
       <c r="I94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="56" t="s">
-        <v>228</v>
+      <c r="A95" s="57" t="s">
+        <v>229</v>
       </c>
       <c r="B95" s="32" t="n">
         <v>52335</v>
@@ -5552,10 +5578,10 @@
         <v>1</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H95" s="12" t="n">
         <v>4</v>
@@ -5564,7 +5590,7 @@
     </row>
     <row r="96" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B96" s="32" t="n">
         <v>19323</v>
@@ -5579,7 +5605,7 @@
         <v>282335</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H96" s="12" t="n">
         <v>4</v>
@@ -5587,8 +5613,8 @@
       <c r="I96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="57" t="s">
-        <v>233</v>
+      <c r="A97" s="58" t="s">
+        <v>234</v>
       </c>
       <c r="B97" s="32" t="n">
         <v>92</v>
@@ -5600,10 +5626,10 @@
         <v>1</v>
       </c>
       <c r="E97" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="F97" s="59" t="s">
         <v>234</v>
-      </c>
-      <c r="F97" s="58" t="s">
-        <v>233</v>
       </c>
       <c r="H97" s="12" t="n">
         <v>4</v>
@@ -5612,7 +5638,7 @@
     </row>
     <row r="98" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B98" s="32" t="n">
         <v>14182</v>
@@ -5624,10 +5650,10 @@
         <v>1</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="F98" s="58" t="s">
-        <v>233</v>
+        <v>237</v>
+      </c>
+      <c r="F98" s="59" t="s">
+        <v>234</v>
       </c>
       <c r="H98" s="12" t="n">
         <v>4</v>
@@ -5638,16 +5664,16 @@
     </row>
     <row r="99" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="59"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="60"/>
       <c r="F99" s="7"/>
       <c r="I99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="60" t="s">
-        <v>237</v>
+      <c r="A100" s="61" t="s">
+        <v>238</v>
       </c>
       <c r="B100" s="9" t="n">
         <v>104226</v>
@@ -5659,21 +5685,21 @@
         <v>1</v>
       </c>
       <c r="E100" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F100" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="F100" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="H100" s="61" t="n">
+      <c r="H100" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="62" t="s">
-        <v>240</v>
+      <c r="A101" s="63" t="s">
+        <v>241</v>
       </c>
       <c r="B101" s="9" t="n">
         <v>324990</v>
@@ -5685,19 +5711,19 @@
         <v>1</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="F101" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="H101" s="61" t="n">
+      <c r="F101" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="H101" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="64" t="s">
-        <v>243</v>
+      <c r="A102" s="65" t="s">
+        <v>244</v>
       </c>
       <c r="B102" s="9" t="n">
         <v>389121</v>
@@ -5709,19 +5735,19 @@
         <v>1</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="F102" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="H102" s="61" t="n">
+      <c r="F102" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="H102" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="62" t="s">
-        <v>246</v>
+      <c r="A103" s="63" t="s">
+        <v>247</v>
       </c>
       <c r="B103" s="9" t="n">
         <v>13970</v>
@@ -5733,19 +5759,19 @@
         <v>60</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="F103" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="H103" s="61" t="n">
+      <c r="F103" s="64" t="s">
+        <v>249</v>
+      </c>
+      <c r="H103" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="62" t="s">
-        <v>249</v>
+      <c r="A104" s="63" t="s">
+        <v>250</v>
       </c>
       <c r="B104" s="9" t="n">
         <v>125764</v>
@@ -5757,19 +5783,19 @@
         <v>1</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="F104" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="H104" s="61" t="n">
+      <c r="F104" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="H104" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I104" s="7"/>
     </row>
     <row r="105" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="62" t="s">
-        <v>252</v>
+      <c r="A105" s="63" t="s">
+        <v>253</v>
       </c>
       <c r="B105" s="9" t="n">
         <v>44716</v>
@@ -5781,19 +5807,19 @@
         <v>1</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="F105" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="H105" s="61" t="n">
+      <c r="F105" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="H105" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I105" s="7"/>
     </row>
     <row r="106" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="66" t="s">
-        <v>255</v>
+      <c r="A106" s="67" t="s">
+        <v>256</v>
       </c>
       <c r="B106" s="9" t="n">
         <v>153727</v>
@@ -5807,17 +5833,17 @@
       <c r="E106" s="10" t="n">
         <v>5006</v>
       </c>
-      <c r="F106" s="63" t="s">
-        <v>256</v>
-      </c>
-      <c r="H106" s="61" t="n">
+      <c r="F106" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="H106" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I106" s="7"/>
     </row>
     <row r="107" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="62" t="s">
-        <v>257</v>
+      <c r="A107" s="63" t="s">
+        <v>258</v>
       </c>
       <c r="B107" s="9" t="n">
         <v>261646</v>
@@ -5829,19 +5855,19 @@
         <v>1</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="F107" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="H107" s="61" t="n">
+      <c r="F107" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="H107" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I107" s="7"/>
     </row>
     <row r="108" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="62" t="s">
-        <v>260</v>
+      <c r="A108" s="63" t="s">
+        <v>261</v>
       </c>
       <c r="B108" s="9" t="n">
         <v>4455</v>
@@ -5853,19 +5879,19 @@
         <v>1</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F108" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="H108" s="61" t="n">
+      <c r="F108" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="H108" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I108" s="7"/>
     </row>
     <row r="109" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="62" t="s">
-        <v>263</v>
+      <c r="A109" s="63" t="s">
+        <v>264</v>
       </c>
       <c r="B109" s="9" t="n">
         <v>466288</v>
@@ -5877,19 +5903,19 @@
         <v>1</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="F109" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="H109" s="61" t="n">
+      <c r="F109" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H109" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I109" s="7"/>
     </row>
     <row r="110" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="62" t="s">
-        <v>266</v>
+      <c r="A110" s="63" t="s">
+        <v>267</v>
       </c>
       <c r="B110" s="9" t="n">
         <v>555766</v>
@@ -5901,46 +5927,46 @@
         <v>1</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="F110" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="H110" s="61" t="n">
+      <c r="F110" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="H110" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I110" s="7"/>
     </row>
     <row r="111" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="67" t="s">
-        <v>269</v>
-      </c>
-      <c r="B111" s="68" t="n">
+      <c r="A111" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="B111" s="69" t="n">
         <v>57272</v>
       </c>
-      <c r="C111" s="68" t="n">
+      <c r="C111" s="69" t="n">
         <v>63279</v>
       </c>
-      <c r="D111" s="69" t="n">
+      <c r="D111" s="70" t="n">
         <v>1</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="F111" s="63" t="s">
         <v>271</v>
+      </c>
+      <c r="F111" s="64" t="s">
+        <v>272</v>
       </c>
       <c r="G111" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H111" s="61" t="n">
+      <c r="H111" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I111" s="7"/>
     </row>
     <row r="112" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="67" t="s">
-        <v>269</v>
+      <c r="A112" s="68" t="s">
+        <v>270</v>
       </c>
       <c r="B112" s="9" t="n">
         <v>3510</v>
@@ -5951,47 +5977,47 @@
       <c r="D112" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E112" s="70" t="n">
+      <c r="E112" s="71" t="n">
         <v>27372</v>
       </c>
-      <c r="F112" s="65" t="s">
-        <v>272</v>
+      <c r="F112" s="66" t="s">
+        <v>273</v>
       </c>
       <c r="G112" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H112" s="61" t="n">
+      <c r="H112" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I112" s="7"/>
     </row>
     <row r="113" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="B113" s="72" t="n">
+      <c r="A113" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="B113" s="73" t="n">
         <v>94878</v>
       </c>
-      <c r="C113" s="72" t="n">
+      <c r="C113" s="73" t="n">
         <v>96908</v>
       </c>
-      <c r="D113" s="73" t="n">
+      <c r="D113" s="74" t="n">
         <v>1</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F113" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="H113" s="61" t="n">
+      <c r="F113" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="H113" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="62" t="s">
-        <v>276</v>
+      <c r="A114" s="63" t="s">
+        <v>277</v>
       </c>
       <c r="B114" s="9" t="n">
         <v>40906</v>
@@ -6005,17 +6031,17 @@
       <c r="E114" s="10" t="n">
         <v>101522115</v>
       </c>
-      <c r="F114" s="63" t="s">
-        <v>277</v>
-      </c>
-      <c r="H114" s="61" t="n">
+      <c r="F114" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="H114" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I114" s="7"/>
     </row>
     <row r="115" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="62" t="s">
-        <v>278</v>
+      <c r="A115" s="63" t="s">
+        <v>279</v>
       </c>
       <c r="B115" s="9" t="n">
         <v>20218</v>
@@ -6027,19 +6053,19 @@
         <v>1</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="F115" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="H115" s="61" t="n">
+      <c r="F115" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="H115" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I115" s="7"/>
     </row>
     <row r="116" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="62" t="s">
-        <v>281</v>
+      <c r="A116" s="63" t="s">
+        <v>282</v>
       </c>
       <c r="B116" s="9" t="n">
         <v>27526</v>
@@ -6051,19 +6077,19 @@
         <v>1</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="F116" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="H116" s="61" t="n">
+      <c r="F116" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="H116" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="62" t="s">
-        <v>284</v>
+      <c r="A117" s="63" t="s">
+        <v>285</v>
       </c>
       <c r="B117" s="9" t="n">
         <v>251227</v>
@@ -6075,19 +6101,19 @@
         <v>1</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="F117" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="H117" s="61" t="n">
+      <c r="F117" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="H117" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I117" s="7"/>
     </row>
     <row r="118" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="62" t="s">
-        <v>287</v>
+      <c r="A118" s="63" t="s">
+        <v>288</v>
       </c>
       <c r="B118" s="9" t="n">
         <v>399994</v>
@@ -6099,19 +6125,19 @@
         <v>1</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="F118" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="H118" s="61" t="n">
+      <c r="F118" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="H118" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I118" s="7"/>
     </row>
     <row r="119" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="62" t="s">
-        <v>290</v>
+      <c r="A119" s="63" t="s">
+        <v>291</v>
       </c>
       <c r="B119" s="9" t="n">
         <v>80795</v>
@@ -6123,19 +6149,19 @@
         <v>1</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F119" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="H119" s="61" t="n">
+      <c r="F119" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="H119" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I119" s="7"/>
     </row>
     <row r="120" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="62" t="s">
-        <v>293</v>
+      <c r="A120" s="63" t="s">
+        <v>294</v>
       </c>
       <c r="B120" s="9" t="n">
         <v>201518</v>
@@ -6147,19 +6173,19 @@
         <v>1</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="F120" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="H120" s="61" t="n">
+      <c r="F120" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H120" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I120" s="7"/>
     </row>
     <row r="121" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="62" t="s">
-        <v>296</v>
+      <c r="A121" s="63" t="s">
+        <v>297</v>
       </c>
       <c r="B121" s="9" t="n">
         <v>348441</v>
@@ -6171,19 +6197,19 @@
         <v>1</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="F121" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="H121" s="61" t="n">
+      <c r="F121" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="H121" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I121" s="7"/>
     </row>
     <row r="122" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="62" t="s">
-        <v>299</v>
+      <c r="A122" s="63" t="s">
+        <v>300</v>
       </c>
       <c r="B122" s="9" t="n">
         <v>290045</v>
@@ -6195,22 +6221,22 @@
         <v>1</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="F122" s="63" t="s">
         <v>301</v>
+      </c>
+      <c r="F122" s="64" t="s">
+        <v>302</v>
       </c>
       <c r="G122" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="H122" s="61" t="n">
+      <c r="H122" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I122" s="7"/>
     </row>
     <row r="123" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="62" t="s">
-        <v>302</v>
+      <c r="A123" s="63" t="s">
+        <v>303</v>
       </c>
       <c r="B123" s="9" t="n">
         <v>392079</v>
@@ -6224,17 +6250,17 @@
       <c r="E123" s="10" t="n">
         <v>806</v>
       </c>
-      <c r="F123" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="H123" s="61" t="n">
+      <c r="F123" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="H123" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I123" s="7"/>
     </row>
     <row r="124" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="62" t="s">
-        <v>304</v>
+      <c r="A124" s="63" t="s">
+        <v>305</v>
       </c>
       <c r="B124" s="9" t="n">
         <v>134437</v>
@@ -6246,19 +6272,19 @@
         <v>1</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="F124" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="H124" s="61" t="n">
+      <c r="F124" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="H124" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I124" s="7"/>
     </row>
     <row r="125" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="62" t="s">
-        <v>307</v>
+      <c r="A125" s="63" t="s">
+        <v>308</v>
       </c>
       <c r="B125" s="9" t="n">
         <v>29110</v>
@@ -6272,17 +6298,17 @@
       <c r="E125" s="10" t="n">
         <v>2125</v>
       </c>
-      <c r="F125" s="63" t="s">
-        <v>308</v>
-      </c>
-      <c r="H125" s="61" t="n">
+      <c r="F125" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="H125" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I125" s="7"/>
     </row>
     <row r="126" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="62" t="s">
-        <v>309</v>
+      <c r="A126" s="63" t="s">
+        <v>310</v>
       </c>
       <c r="B126" s="9" t="n">
         <v>87208</v>
@@ -6294,19 +6320,19 @@
         <v>1</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="F126" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="H126" s="61" t="n">
+      <c r="F126" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="H126" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I126" s="7"/>
     </row>
     <row r="127" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="62" t="s">
-        <v>312</v>
+      <c r="A127" s="63" t="s">
+        <v>313</v>
       </c>
       <c r="B127" s="9" t="n">
         <v>294374</v>
@@ -6318,19 +6344,19 @@
         <v>1</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="F127" s="63" t="s">
         <v>314</v>
       </c>
-      <c r="H127" s="61" t="n">
+      <c r="F127" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="H127" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I127" s="7"/>
     </row>
     <row r="128" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="62" t="s">
-        <v>315</v>
+      <c r="A128" s="63" t="s">
+        <v>316</v>
       </c>
       <c r="B128" s="9" t="n">
         <v>22763</v>
@@ -6342,19 +6368,19 @@
         <v>20</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="F128" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="H128" s="61" t="n">
+      <c r="F128" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="H128" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I128" s="7"/>
     </row>
     <row r="129" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="62" t="s">
-        <v>318</v>
+      <c r="A129" s="63" t="s">
+        <v>319</v>
       </c>
       <c r="B129" s="9" t="n">
         <v>273893</v>
@@ -6366,19 +6392,19 @@
         <v>1</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="F129" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="H129" s="61" t="n">
+      <c r="F129" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="H129" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I129" s="7"/>
     </row>
     <row r="130" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="64" t="s">
-        <v>321</v>
+      <c r="A130" s="65" t="s">
+        <v>322</v>
       </c>
       <c r="B130" s="9" t="n">
         <v>577804</v>
@@ -6393,16 +6419,16 @@
         <v>35821</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="H130" s="61" t="n">
+        <v>323</v>
+      </c>
+      <c r="H130" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I130" s="7"/>
     </row>
     <row r="131" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="74" t="s">
-        <v>189</v>
+      <c r="A131" s="75" t="s">
+        <v>190</v>
       </c>
       <c r="B131" s="9" t="n">
         <v>31155</v>
@@ -6417,19 +6443,19 @@
         <v>103473542</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G131" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H131" s="61" t="n">
+      <c r="H131" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I131" s="7"/>
     </row>
     <row r="132" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="64" t="s">
-        <v>299</v>
+      <c r="A132" s="65" t="s">
+        <v>300</v>
       </c>
       <c r="B132" s="9" t="n">
         <v>26789</v>
@@ -6441,22 +6467,22 @@
         <v>1</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G132" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="H132" s="61" t="n">
+      <c r="H132" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I132" s="7"/>
     </row>
     <row r="133" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="64" t="s">
-        <v>326</v>
+      <c r="A133" s="65" t="s">
+        <v>327</v>
       </c>
       <c r="B133" s="9" t="n">
         <v>46028</v>
@@ -6468,19 +6494,19 @@
         <v>1</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="H133" s="61" t="n">
+        <v>329</v>
+      </c>
+      <c r="H133" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I133" s="7"/>
     </row>
     <row r="134" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="75" t="s">
-        <v>329</v>
+      <c r="A134" s="76" t="s">
+        <v>330</v>
       </c>
       <c r="B134" s="9" t="n">
         <v>59811</v>
@@ -6495,16 +6521,16 @@
         <v>4616</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="H134" s="61" t="n">
+        <v>331</v>
+      </c>
+      <c r="H134" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I134" s="7"/>
     </row>
     <row r="135" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="75" t="s">
-        <v>331</v>
+      <c r="A135" s="76" t="s">
+        <v>332</v>
       </c>
       <c r="B135" s="9" t="n">
         <v>71117</v>
@@ -6516,19 +6542,19 @@
         <v>20</v>
       </c>
       <c r="E135" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F135" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="F135" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="H135" s="61" t="n">
+      <c r="H135" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I135" s="7"/>
     </row>
     <row r="136" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="75" t="s">
-        <v>333</v>
+      <c r="A136" s="76" t="s">
+        <v>334</v>
       </c>
       <c r="B136" s="9" t="n">
         <v>73427</v>
@@ -6540,22 +6566,22 @@
         <v>1</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G136" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H136" s="61" t="n">
+      <c r="H136" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I136" s="7"/>
     </row>
     <row r="137" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="60" t="s">
-        <v>336</v>
+      <c r="A137" s="61" t="s">
+        <v>337</v>
       </c>
       <c r="B137" s="9" t="n">
         <v>17863</v>
@@ -6567,19 +6593,19 @@
         <v>1</v>
       </c>
       <c r="E137" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F137" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F137" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="H137" s="61" t="n">
+      <c r="H137" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I137" s="7"/>
     </row>
     <row r="138" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="75" t="s">
-        <v>333</v>
+      <c r="A138" s="76" t="s">
+        <v>334</v>
       </c>
       <c r="B138" s="9" t="n">
         <v>14936</v>
@@ -6591,34 +6617,34 @@
         <v>1</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G138" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H138" s="61" t="n">
+      <c r="H138" s="62" t="n">
         <v>5</v>
       </c>
       <c r="I138" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="59"/>
-      <c r="B139" s="59"/>
-      <c r="C139" s="59"/>
-      <c r="D139" s="59"/>
-      <c r="E139" s="59"/>
-      <c r="F139" s="59"/>
+      <c r="A139" s="60"/>
+      <c r="B139" s="60"/>
+      <c r="C139" s="60"/>
+      <c r="D139" s="60"/>
+      <c r="E139" s="60"/>
+      <c r="F139" s="60"/>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
     </row>
     <row r="140" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="76" t="s">
-        <v>340</v>
+      <c r="A140" s="77" t="s">
+        <v>341</v>
       </c>
       <c r="B140" s="29" t="n">
         <v>15809</v>
@@ -6633,18 +6659,18 @@
         <v>2262538</v>
       </c>
       <c r="F140" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="H140" s="77" t="n">
+        <v>342</v>
+      </c>
+      <c r="H140" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="76" t="s">
-        <v>343</v>
+      <c r="A141" s="77" t="s">
+        <v>344</v>
       </c>
       <c r="B141" s="29" t="n">
         <v>46181</v>
@@ -6659,16 +6685,16 @@
         <v>5521045</v>
       </c>
       <c r="F141" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="H141" s="77" t="n">
+        <v>345</v>
+      </c>
+      <c r="H141" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I141" s="7"/>
     </row>
     <row r="142" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="76" t="s">
-        <v>345</v>
+      <c r="A142" s="77" t="s">
+        <v>346</v>
       </c>
       <c r="B142" s="29" t="n">
         <v>38097</v>
@@ -6683,16 +6709,16 @@
         <v>2261340</v>
       </c>
       <c r="F142" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="H142" s="77" t="n">
+        <v>347</v>
+      </c>
+      <c r="H142" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I142" s="7"/>
     </row>
     <row r="143" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="76" t="s">
-        <v>347</v>
+      <c r="A143" s="77" t="s">
+        <v>348</v>
       </c>
       <c r="B143" s="29" t="n">
         <v>48251</v>
@@ -6707,16 +6733,16 @@
         <v>5510929</v>
       </c>
       <c r="F143" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="H143" s="77" t="n">
+        <v>349</v>
+      </c>
+      <c r="H143" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I143" s="7"/>
     </row>
     <row r="144" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="76" t="s">
-        <v>349</v>
+      <c r="A144" s="77" t="s">
+        <v>350</v>
       </c>
       <c r="B144" s="29" t="n">
         <v>70246</v>
@@ -6731,16 +6757,16 @@
         <v>5511505</v>
       </c>
       <c r="F144" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="H144" s="77" t="n">
+        <v>351</v>
+      </c>
+      <c r="H144" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I144" s="7"/>
     </row>
     <row r="145" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="76" t="s">
-        <v>351</v>
+      <c r="A145" s="77" t="s">
+        <v>352</v>
       </c>
       <c r="B145" s="29" t="n">
         <v>39798</v>
@@ -6755,16 +6781,16 @@
         <v>5510311</v>
       </c>
       <c r="F145" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="H145" s="77" t="n">
+        <v>353</v>
+      </c>
+      <c r="H145" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I145" s="7"/>
     </row>
     <row r="146" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="76" t="s">
-        <v>353</v>
+      <c r="A146" s="77" t="s">
+        <v>354</v>
       </c>
       <c r="B146" s="29" t="n">
         <v>50673</v>
@@ -6779,16 +6805,16 @@
         <v>5510177</v>
       </c>
       <c r="F146" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="H146" s="77" t="n">
+        <v>355</v>
+      </c>
+      <c r="H146" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I146" s="7"/>
     </row>
     <row r="147" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="76" t="s">
-        <v>355</v>
+      <c r="A147" s="77" t="s">
+        <v>356</v>
       </c>
       <c r="B147" s="29" t="n">
         <v>90776</v>
@@ -6803,16 +6829,16 @@
         <v>2262535</v>
       </c>
       <c r="F147" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="H147" s="77" t="n">
+        <v>357</v>
+      </c>
+      <c r="H147" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I147" s="7"/>
     </row>
     <row r="148" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="76" t="s">
-        <v>357</v>
+      <c r="A148" s="77" t="s">
+        <v>358</v>
       </c>
       <c r="B148" s="29" t="n">
         <v>48253</v>
@@ -6824,19 +6850,19 @@
         <v>1</v>
       </c>
       <c r="E148" s="27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F148" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="H148" s="77" t="n">
+        <v>360</v>
+      </c>
+      <c r="H148" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I148" s="7"/>
     </row>
     <row r="149" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="78" t="s">
-        <v>360</v>
+      <c r="A149" s="79" t="s">
+        <v>361</v>
       </c>
       <c r="B149" s="29" t="n">
         <v>321141</v>
@@ -6848,81 +6874,81 @@
         <v>1</v>
       </c>
       <c r="E149" s="27" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F149" s="24" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G149" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H149" s="77" t="n">
+      <c r="H149" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I149" s="7"/>
     </row>
     <row r="150" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="B150" s="79" t="n">
+      <c r="A150" s="79" t="s">
+        <v>361</v>
+      </c>
+      <c r="B150" s="80" t="n">
         <v>2187</v>
       </c>
-      <c r="C150" s="79" t="n">
+      <c r="C150" s="80" t="n">
         <v>3737</v>
       </c>
       <c r="D150" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="E150" s="80" t="s">
+      <c r="E150" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="F150" s="24" t="s">
         <v>363</v>
-      </c>
-      <c r="F150" s="24" t="s">
-        <v>362</v>
       </c>
       <c r="G150" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H150" s="77" t="n">
+      <c r="H150" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I150" s="7"/>
     </row>
     <row r="151" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="B151" s="79" t="n">
+      <c r="A151" s="79" t="s">
+        <v>361</v>
+      </c>
+      <c r="B151" s="80" t="n">
         <v>338</v>
       </c>
-      <c r="C151" s="79" t="n">
+      <c r="C151" s="80" t="n">
         <v>345</v>
       </c>
       <c r="D151" s="44" t="n">
         <v>1</v>
       </c>
       <c r="E151" s="27" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F151" s="24" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G151" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H151" s="77" t="n">
+      <c r="H151" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I151" s="7"/>
     </row>
     <row r="152" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="81" t="s">
-        <v>365</v>
-      </c>
-      <c r="B152" s="79" t="n">
+      <c r="A152" s="82" t="s">
+        <v>366</v>
+      </c>
+      <c r="B152" s="80" t="n">
         <v>28981</v>
       </c>
-      <c r="C152" s="79" t="n">
+      <c r="C152" s="80" t="n">
         <v>29310</v>
       </c>
       <c r="D152" s="33" t="n">
@@ -6932,21 +6958,21 @@
         <v>5510402</v>
       </c>
       <c r="F152" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="H152" s="77" t="n">
+        <v>367</v>
+      </c>
+      <c r="H152" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I152" s="7"/>
     </row>
     <row r="153" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="81" t="s">
-        <v>367</v>
-      </c>
-      <c r="B153" s="79" t="n">
+      <c r="A153" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="B153" s="80" t="n">
         <v>39000</v>
       </c>
-      <c r="C153" s="79" t="n">
+      <c r="C153" s="80" t="n">
         <v>39308</v>
       </c>
       <c r="D153" s="33" t="n">
@@ -6956,21 +6982,21 @@
         <v>5509256</v>
       </c>
       <c r="F153" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H153" s="77" t="n">
+        <v>369</v>
+      </c>
+      <c r="H153" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I153" s="7"/>
     </row>
     <row r="154" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="81" t="s">
-        <v>369</v>
-      </c>
-      <c r="B154" s="79" t="n">
+      <c r="A154" s="82" t="s">
+        <v>370</v>
+      </c>
+      <c r="B154" s="80" t="n">
         <v>35175</v>
       </c>
-      <c r="C154" s="79" t="n">
+      <c r="C154" s="80" t="n">
         <v>35744</v>
       </c>
       <c r="D154" s="33" t="n">
@@ -6980,21 +7006,21 @@
         <v>5509265</v>
       </c>
       <c r="F154" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="H154" s="77" t="n">
+        <v>371</v>
+      </c>
+      <c r="H154" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I154" s="7"/>
     </row>
     <row r="155" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="81" t="s">
-        <v>371</v>
-      </c>
-      <c r="B155" s="79" t="n">
+      <c r="A155" s="82" t="s">
+        <v>372</v>
+      </c>
+      <c r="B155" s="80" t="n">
         <v>23901</v>
       </c>
-      <c r="C155" s="79" t="n">
+      <c r="C155" s="80" t="n">
         <v>24172</v>
       </c>
       <c r="D155" s="33" t="n">
@@ -7004,21 +7030,21 @@
         <v>5518342</v>
       </c>
       <c r="F155" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="H155" s="77" t="n">
+        <v>373</v>
+      </c>
+      <c r="H155" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I155" s="7"/>
     </row>
     <row r="156" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="81" t="s">
-        <v>373</v>
-      </c>
-      <c r="B156" s="79" t="n">
+      <c r="A156" s="82" t="s">
+        <v>374</v>
+      </c>
+      <c r="B156" s="80" t="n">
         <v>26649</v>
       </c>
-      <c r="C156" s="79" t="n">
+      <c r="C156" s="80" t="n">
         <v>26984</v>
       </c>
       <c r="D156" s="33" t="n">
@@ -7028,21 +7054,21 @@
         <v>2262004</v>
       </c>
       <c r="F156" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="H156" s="77" t="n">
+        <v>375</v>
+      </c>
+      <c r="H156" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I156" s="7"/>
     </row>
     <row r="157" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="81" t="s">
-        <v>375</v>
-      </c>
-      <c r="B157" s="79" t="n">
+      <c r="A157" s="82" t="s">
+        <v>376</v>
+      </c>
+      <c r="B157" s="80" t="n">
         <v>24134</v>
       </c>
-      <c r="C157" s="79" t="n">
+      <c r="C157" s="80" t="n">
         <v>24511</v>
       </c>
       <c r="D157" s="33" t="n">
@@ -7052,21 +7078,21 @@
         <v>2262573</v>
       </c>
       <c r="F157" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="H157" s="77" t="n">
+        <v>377</v>
+      </c>
+      <c r="H157" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I157" s="7"/>
     </row>
     <row r="158" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="81" t="s">
-        <v>377</v>
-      </c>
-      <c r="B158" s="79" t="n">
+      <c r="A158" s="82" t="s">
+        <v>378</v>
+      </c>
+      <c r="B158" s="80" t="n">
         <v>63843</v>
       </c>
-      <c r="C158" s="79" t="n">
+      <c r="C158" s="80" t="n">
         <v>64273</v>
       </c>
       <c r="D158" s="33" t="n">
@@ -7076,21 +7102,21 @@
         <v>2262504</v>
       </c>
       <c r="F158" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="H158" s="77" t="n">
+        <v>379</v>
+      </c>
+      <c r="H158" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I158" s="7"/>
     </row>
     <row r="159" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="81" t="s">
-        <v>379</v>
-      </c>
-      <c r="B159" s="79" t="n">
+      <c r="A159" s="82" t="s">
+        <v>380</v>
+      </c>
+      <c r="B159" s="80" t="n">
         <v>15421</v>
       </c>
-      <c r="C159" s="79" t="n">
+      <c r="C159" s="80" t="n">
         <v>15596</v>
       </c>
       <c r="D159" s="33" t="n">
@@ -7100,21 +7126,21 @@
         <v>282333</v>
       </c>
       <c r="F159" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="H159" s="77" t="n">
+        <v>381</v>
+      </c>
+      <c r="H159" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I159" s="7"/>
     </row>
     <row r="160" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="82" t="s">
-        <v>381</v>
-      </c>
-      <c r="B160" s="83" t="n">
+      <c r="A160" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="B160" s="84" t="n">
         <v>51370</v>
       </c>
-      <c r="C160" s="83" t="n">
+      <c r="C160" s="84" t="n">
         <v>51896</v>
       </c>
       <c r="D160" s="33" t="n">
@@ -7124,21 +7150,21 @@
         <v>2261380</v>
       </c>
       <c r="F160" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="H160" s="77" t="n">
+        <v>383</v>
+      </c>
+      <c r="H160" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I160" s="7"/>
     </row>
     <row r="161" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="81" t="s">
-        <v>383</v>
-      </c>
-      <c r="B161" s="79" t="n">
+      <c r="A161" s="82" t="s">
+        <v>384</v>
+      </c>
+      <c r="B161" s="80" t="n">
         <v>42066</v>
       </c>
-      <c r="C161" s="79" t="n">
+      <c r="C161" s="80" t="n">
         <v>42066</v>
       </c>
       <c r="D161" s="33" t="n">
@@ -7148,117 +7174,117 @@
         <v>3263</v>
       </c>
       <c r="F161" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="H161" s="77" t="n">
+        <v>385</v>
+      </c>
+      <c r="H161" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I161" s="7"/>
     </row>
     <row r="162" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="81" t="s">
-        <v>385</v>
-      </c>
-      <c r="B162" s="79" t="n">
+      <c r="A162" s="82" t="s">
+        <v>386</v>
+      </c>
+      <c r="B162" s="80" t="n">
         <v>964</v>
       </c>
-      <c r="C162" s="79" t="n">
+      <c r="C162" s="80" t="n">
         <v>1018</v>
       </c>
       <c r="D162" s="33" t="n">
         <v>1</v>
       </c>
       <c r="E162" s="27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F162" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="H162" s="77" t="n">
+        <v>388</v>
+      </c>
+      <c r="H162" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I162" s="7"/>
     </row>
     <row r="163" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="81" t="s">
-        <v>388</v>
-      </c>
-      <c r="B163" s="79" t="n">
+      <c r="A163" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="B163" s="80" t="n">
         <v>11383</v>
       </c>
-      <c r="C163" s="79" t="n">
+      <c r="C163" s="80" t="n">
         <v>11800</v>
       </c>
       <c r="D163" s="33" t="n">
         <v>1</v>
       </c>
       <c r="E163" s="27" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F163" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="H163" s="77" t="n">
+        <v>391</v>
+      </c>
+      <c r="H163" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I163" s="7"/>
     </row>
     <row r="164" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="81" t="s">
-        <v>391</v>
-      </c>
-      <c r="B164" s="79" t="n">
+      <c r="A164" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="B164" s="80" t="n">
         <v>110996</v>
       </c>
-      <c r="C164" s="79" t="n">
+      <c r="C164" s="80" t="n">
         <v>111567</v>
       </c>
       <c r="D164" s="33" t="n">
         <v>1</v>
       </c>
       <c r="E164" s="27" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F164" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="H164" s="77" t="n">
+        <v>394</v>
+      </c>
+      <c r="H164" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I164" s="7"/>
     </row>
     <row r="165" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="81" t="s">
-        <v>394</v>
-      </c>
-      <c r="B165" s="79" t="n">
+      <c r="A165" s="82" t="s">
+        <v>395</v>
+      </c>
+      <c r="B165" s="80" t="n">
         <v>261668</v>
       </c>
-      <c r="C165" s="79" t="n">
+      <c r="C165" s="80" t="n">
         <v>263574</v>
       </c>
       <c r="D165" s="33" t="n">
         <v>1</v>
       </c>
       <c r="E165" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F165" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="H165" s="77" t="n">
+        <v>397</v>
+      </c>
+      <c r="H165" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I165" s="7"/>
     </row>
     <row r="166" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="81" t="s">
-        <v>397</v>
-      </c>
-      <c r="B166" s="79" t="n">
+      <c r="A166" s="82" t="s">
+        <v>398</v>
+      </c>
+      <c r="B166" s="80" t="n">
         <v>73340</v>
       </c>
-      <c r="C166" s="79" t="n">
+      <c r="C166" s="80" t="n">
         <v>74824</v>
       </c>
       <c r="D166" s="33" t="n">
@@ -7268,45 +7294,45 @@
         <v>2261167</v>
       </c>
       <c r="F166" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="H166" s="77" t="n">
+        <v>399</v>
+      </c>
+      <c r="H166" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I166" s="7"/>
     </row>
     <row r="167" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="81" t="s">
-        <v>399</v>
-      </c>
-      <c r="B167" s="79" t="n">
+      <c r="A167" s="82" t="s">
+        <v>400</v>
+      </c>
+      <c r="B167" s="80" t="n">
         <v>5158</v>
       </c>
-      <c r="C167" s="79" t="n">
+      <c r="C167" s="80" t="n">
         <v>5622</v>
       </c>
       <c r="D167" s="44" t="n">
         <v>1</v>
       </c>
       <c r="E167" s="27" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F167" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="H167" s="77" t="n">
+        <v>402</v>
+      </c>
+      <c r="H167" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I167" s="7"/>
     </row>
     <row r="168" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="81" t="s">
-        <v>402</v>
-      </c>
-      <c r="B168" s="79" t="n">
+      <c r="A168" s="82" t="s">
+        <v>403</v>
+      </c>
+      <c r="B168" s="80" t="n">
         <v>13957</v>
       </c>
-      <c r="C168" s="79" t="n">
+      <c r="C168" s="80" t="n">
         <v>14006</v>
       </c>
       <c r="D168" s="44" t="n">
@@ -7316,40 +7342,40 @@
         <v>370293</v>
       </c>
       <c r="F168" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="H168" s="77" t="n">
+        <v>404</v>
+      </c>
+      <c r="H168" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I168" s="7"/>
     </row>
     <row r="169" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="84" t="s">
-        <v>404</v>
-      </c>
-      <c r="B169" s="85" t="n">
+      <c r="A169" s="85" t="s">
+        <v>405</v>
+      </c>
+      <c r="B169" s="86" t="n">
         <v>6544</v>
       </c>
-      <c r="C169" s="85" t="n">
+      <c r="C169" s="86" t="n">
         <v>6544</v>
       </c>
-      <c r="D169" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E169" s="87" t="n">
+      <c r="D169" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E169" s="88" t="n">
         <v>1940</v>
       </c>
-      <c r="F169" s="88" t="s">
-        <v>405</v>
-      </c>
-      <c r="H169" s="77" t="n">
+      <c r="F169" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="H169" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I169" s="7"/>
     </row>
     <row r="170" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="89" t="s">
-        <v>406</v>
+      <c r="A170" s="90" t="s">
+        <v>407</v>
       </c>
       <c r="B170" s="32" t="n">
         <v>19154</v>
@@ -7361,19 +7387,19 @@
         <v>1</v>
       </c>
       <c r="E170" s="27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F170" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="H170" s="77" t="n">
+        <v>409</v>
+      </c>
+      <c r="H170" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I170" s="7"/>
     </row>
     <row r="171" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="81" t="s">
-        <v>409</v>
+      <c r="A171" s="82" t="s">
+        <v>410</v>
       </c>
       <c r="B171" s="44" t="n">
         <v>4649</v>
@@ -7385,19 +7411,19 @@
         <v>1</v>
       </c>
       <c r="E171" s="27" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F171" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="H171" s="77" t="n">
+        <v>412</v>
+      </c>
+      <c r="H171" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I171" s="7"/>
     </row>
     <row r="172" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="89" t="s">
-        <v>412</v>
+      <c r="A172" s="90" t="s">
+        <v>413</v>
       </c>
       <c r="B172" s="32" t="n">
         <v>9676</v>
@@ -7409,31 +7435,31 @@
         <v>1</v>
       </c>
       <c r="E172" s="27" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F172" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="H172" s="77" t="n">
+        <v>415</v>
+      </c>
+      <c r="H172" s="78" t="n">
         <v>6</v>
       </c>
       <c r="I172" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="59"/>
-      <c r="B173" s="59"/>
-      <c r="C173" s="59"/>
-      <c r="D173" s="59"/>
-      <c r="E173" s="59"/>
-      <c r="F173" s="59"/>
+      <c r="A173" s="60"/>
+      <c r="B173" s="60"/>
+      <c r="C173" s="60"/>
+      <c r="D173" s="60"/>
+      <c r="E173" s="60"/>
+      <c r="F173" s="60"/>
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
     </row>
     <row r="174" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="82" t="s">
-        <v>415</v>
+      <c r="A174" s="83" t="s">
+        <v>416</v>
       </c>
       <c r="B174" s="44" t="n">
         <v>51705</v>
@@ -7445,75 +7471,75 @@
         <v>1</v>
       </c>
       <c r="E174" s="27" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F174" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="H174" s="90" t="n">
+        <v>418</v>
+      </c>
+      <c r="H174" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I174" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="91" t="s">
-        <v>419</v>
-      </c>
-      <c r="B175" s="92" t="n">
+      <c r="A175" s="92" t="s">
+        <v>420</v>
+      </c>
+      <c r="B175" s="93" t="n">
         <v>51435</v>
       </c>
-      <c r="C175" s="92" t="n">
+      <c r="C175" s="93" t="n">
         <v>51774</v>
       </c>
-      <c r="D175" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="70" t="n">
+      <c r="D175" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="71" t="n">
         <v>3855</v>
       </c>
       <c r="F175" s="24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G175" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H175" s="90" t="n">
+      <c r="H175" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I175" s="7"/>
     </row>
     <row r="176" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="91" t="s">
-        <v>419</v>
-      </c>
-      <c r="B176" s="92" t="n">
+      <c r="A176" s="92" t="s">
+        <v>420</v>
+      </c>
+      <c r="B176" s="93" t="n">
         <v>122957</v>
       </c>
-      <c r="C176" s="92" t="n">
+      <c r="C176" s="93" t="n">
         <v>127446</v>
       </c>
-      <c r="D176" s="92" t="n">
+      <c r="D176" s="93" t="n">
         <v>1</v>
       </c>
       <c r="E176" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="F176" s="24" t="s">
         <v>421</v>
-      </c>
-      <c r="F176" s="24" t="s">
-        <v>420</v>
       </c>
       <c r="G176" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H176" s="90" t="n">
+      <c r="H176" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I176" s="7"/>
     </row>
     <row r="177" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="81" t="s">
-        <v>422</v>
+      <c r="A177" s="82" t="s">
+        <v>423</v>
       </c>
       <c r="B177" s="44" t="n">
         <v>16293</v>
@@ -7525,19 +7551,19 @@
         <v>1</v>
       </c>
       <c r="E177" s="27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F177" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="H177" s="90" t="n">
+        <v>425</v>
+      </c>
+      <c r="H177" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I177" s="7"/>
     </row>
     <row r="178" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="81" t="s">
-        <v>425</v>
+      <c r="A178" s="82" t="s">
+        <v>426</v>
       </c>
       <c r="B178" s="44" t="n">
         <v>19059</v>
@@ -7549,19 +7575,19 @@
         <v>1</v>
       </c>
       <c r="E178" s="27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F178" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="H178" s="90" t="n">
+        <v>428</v>
+      </c>
+      <c r="H178" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I178" s="7"/>
     </row>
     <row r="179" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="81" t="s">
-        <v>428</v>
+      <c r="A179" s="82" t="s">
+        <v>429</v>
       </c>
       <c r="B179" s="44" t="n">
         <v>18836</v>
@@ -7573,19 +7599,19 @@
         <v>1</v>
       </c>
       <c r="E179" s="27" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F179" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="H179" s="90" t="n">
+        <v>431</v>
+      </c>
+      <c r="H179" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I179" s="7"/>
     </row>
     <row r="180" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="81" t="s">
-        <v>431</v>
+      <c r="A180" s="82" t="s">
+        <v>432</v>
       </c>
       <c r="B180" s="44" t="n">
         <v>22322</v>
@@ -7597,19 +7623,19 @@
         <v>1</v>
       </c>
       <c r="E180" s="27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F180" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="H180" s="90" t="n">
+        <v>434</v>
+      </c>
+      <c r="H180" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I180" s="7"/>
     </row>
     <row r="181" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="81" t="s">
-        <v>434</v>
+      <c r="A181" s="82" t="s">
+        <v>435</v>
       </c>
       <c r="B181" s="44" t="n">
         <v>21550</v>
@@ -7621,19 +7647,19 @@
         <v>1</v>
       </c>
       <c r="E181" s="27" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F181" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="H181" s="90" t="n">
+        <v>437</v>
+      </c>
+      <c r="H181" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I181" s="7"/>
     </row>
     <row r="182" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="93" t="s">
-        <v>437</v>
+      <c r="A182" s="94" t="s">
+        <v>438</v>
       </c>
       <c r="B182" s="44" t="n">
         <v>38151</v>
@@ -7645,22 +7671,22 @@
         <v>1</v>
       </c>
       <c r="E182" s="27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F182" s="24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G182" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="H182" s="90" t="n">
+      <c r="H182" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I182" s="7"/>
     </row>
     <row r="183" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="93" t="s">
-        <v>437</v>
+      <c r="A183" s="94" t="s">
+        <v>438</v>
       </c>
       <c r="B183" s="44" t="n">
         <v>10181</v>
@@ -7672,22 +7698,22 @@
         <v>1</v>
       </c>
       <c r="E183" s="27" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F183" s="24" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G183" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="H183" s="90" t="n">
+      <c r="H183" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I183" s="7"/>
     </row>
     <row r="184" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="81" t="s">
-        <v>442</v>
+      <c r="A184" s="82" t="s">
+        <v>443</v>
       </c>
       <c r="B184" s="44" t="n">
         <v>93143</v>
@@ -7699,19 +7725,19 @@
         <v>1</v>
       </c>
       <c r="E184" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F184" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="H184" s="90" t="n">
+        <v>445</v>
+      </c>
+      <c r="H184" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I184" s="7"/>
     </row>
     <row r="185" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="81" t="s">
-        <v>445</v>
+      <c r="A185" s="82" t="s">
+        <v>446</v>
       </c>
       <c r="B185" s="44" t="n">
         <v>43348</v>
@@ -7723,19 +7749,19 @@
         <v>1</v>
       </c>
       <c r="E185" s="27" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F185" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="H185" s="90" t="n">
+        <v>448</v>
+      </c>
+      <c r="H185" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I185" s="7"/>
     </row>
     <row r="186" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="81" t="s">
-        <v>448</v>
+      <c r="A186" s="82" t="s">
+        <v>449</v>
       </c>
       <c r="B186" s="44" t="n">
         <v>9726</v>
@@ -7747,19 +7773,19 @@
         <v>1</v>
       </c>
       <c r="E186" s="27" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F186" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="H186" s="90" t="n">
+        <v>451</v>
+      </c>
+      <c r="H186" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I186" s="7"/>
     </row>
     <row r="187" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="81" t="s">
-        <v>451</v>
+      <c r="A187" s="82" t="s">
+        <v>452</v>
       </c>
       <c r="B187" s="44" t="n">
         <v>15474</v>
@@ -7771,19 +7797,19 @@
         <v>1</v>
       </c>
       <c r="E187" s="27" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F187" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="H187" s="90" t="n">
+        <v>454</v>
+      </c>
+      <c r="H187" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I187" s="7"/>
     </row>
     <row r="188" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="81" t="s">
-        <v>454</v>
+      <c r="A188" s="82" t="s">
+        <v>455</v>
       </c>
       <c r="B188" s="44" t="n">
         <v>25574</v>
@@ -7795,19 +7821,19 @@
         <v>1</v>
       </c>
       <c r="E188" s="27" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F188" s="24" t="s">
-        <v>456</v>
-      </c>
-      <c r="H188" s="90" t="n">
+        <v>457</v>
+      </c>
+      <c r="H188" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I188" s="7"/>
     </row>
     <row r="189" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="81" t="s">
-        <v>457</v>
+      <c r="A189" s="82" t="s">
+        <v>458</v>
       </c>
       <c r="B189" s="44" t="n">
         <v>15243</v>
@@ -7819,19 +7845,19 @@
         <v>1</v>
       </c>
       <c r="E189" s="27" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F189" s="24" t="s">
-        <v>459</v>
-      </c>
-      <c r="H189" s="90" t="n">
+        <v>460</v>
+      </c>
+      <c r="H189" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I189" s="7"/>
     </row>
     <row r="190" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="81" t="s">
-        <v>460</v>
+      <c r="A190" s="82" t="s">
+        <v>461</v>
       </c>
       <c r="B190" s="44" t="n">
         <v>17615</v>
@@ -7843,19 +7869,19 @@
         <v>1</v>
       </c>
       <c r="E190" s="27" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F190" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="H190" s="90" t="n">
+        <v>463</v>
+      </c>
+      <c r="H190" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I190" s="7"/>
     </row>
     <row r="191" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="81" t="s">
-        <v>463</v>
+      <c r="A191" s="82" t="s">
+        <v>464</v>
       </c>
       <c r="B191" s="44" t="n">
         <v>46343</v>
@@ -7867,19 +7893,19 @@
         <v>1</v>
       </c>
       <c r="E191" s="27" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F191" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="H191" s="90" t="n">
+        <v>466</v>
+      </c>
+      <c r="H191" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I191" s="7"/>
     </row>
     <row r="192" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="81" t="s">
-        <v>466</v>
+      <c r="A192" s="82" t="s">
+        <v>467</v>
       </c>
       <c r="B192" s="44" t="n">
         <v>25111</v>
@@ -7891,19 +7917,19 @@
         <v>1</v>
       </c>
       <c r="E192" s="27" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F192" s="24" t="s">
-        <v>468</v>
-      </c>
-      <c r="H192" s="90" t="n">
+        <v>469</v>
+      </c>
+      <c r="H192" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I192" s="7"/>
     </row>
     <row r="193" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="81" t="s">
-        <v>469</v>
+      <c r="A193" s="82" t="s">
+        <v>470</v>
       </c>
       <c r="B193" s="44" t="n">
         <v>36546</v>
@@ -7915,43 +7941,43 @@
         <v>1</v>
       </c>
       <c r="E193" s="27" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F193" s="24" t="s">
-        <v>471</v>
-      </c>
-      <c r="H193" s="90" t="n">
+        <v>472</v>
+      </c>
+      <c r="H193" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I193" s="7"/>
     </row>
     <row r="194" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="81" t="s">
-        <v>472</v>
-      </c>
-      <c r="B194" s="94" t="n">
+      <c r="A194" s="82" t="s">
+        <v>473</v>
+      </c>
+      <c r="B194" s="95" t="n">
         <v>66445</v>
       </c>
-      <c r="C194" s="94" t="n">
+      <c r="C194" s="95" t="n">
         <v>66445</v>
       </c>
       <c r="D194" s="44" t="n">
         <v>1</v>
       </c>
       <c r="E194" s="27" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F194" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="H194" s="90" t="n">
+        <v>475</v>
+      </c>
+      <c r="H194" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I194" s="7"/>
     </row>
     <row r="195" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="81" t="s">
-        <v>475</v>
+      <c r="A195" s="82" t="s">
+        <v>476</v>
       </c>
       <c r="B195" s="32" t="n">
         <v>77913</v>
@@ -7963,19 +7989,19 @@
         <v>1</v>
       </c>
       <c r="E195" s="27" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F195" s="24" t="s">
-        <v>477</v>
-      </c>
-      <c r="H195" s="90" t="n">
+        <v>478</v>
+      </c>
+      <c r="H195" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I195" s="7"/>
     </row>
     <row r="196" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="81" t="s">
-        <v>478</v>
+      <c r="A196" s="82" t="s">
+        <v>479</v>
       </c>
       <c r="B196" s="44" t="n">
         <v>61833</v>
@@ -7987,19 +8013,19 @@
         <v>1</v>
       </c>
       <c r="E196" s="27" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F196" s="24" t="s">
-        <v>480</v>
-      </c>
-      <c r="H196" s="90" t="n">
+        <v>481</v>
+      </c>
+      <c r="H196" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I196" s="7"/>
     </row>
     <row r="197" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="81" t="s">
-        <v>481</v>
+      <c r="A197" s="82" t="s">
+        <v>482</v>
       </c>
       <c r="B197" s="44" t="n">
         <v>47733</v>
@@ -8011,19 +8037,19 @@
         <v>1</v>
       </c>
       <c r="E197" s="27" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F197" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="H197" s="90" t="n">
+        <v>484</v>
+      </c>
+      <c r="H197" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I197" s="7"/>
     </row>
     <row r="198" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="81" t="s">
-        <v>484</v>
+      <c r="A198" s="82" t="s">
+        <v>485</v>
       </c>
       <c r="B198" s="44" t="n">
         <v>57578</v>
@@ -8035,19 +8061,19 @@
         <v>1</v>
       </c>
       <c r="E198" s="27" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F198" s="24" t="s">
-        <v>486</v>
-      </c>
-      <c r="H198" s="90" t="n">
+        <v>487</v>
+      </c>
+      <c r="H198" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I198" s="7"/>
     </row>
     <row r="199" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="81" t="s">
-        <v>487</v>
+      <c r="A199" s="82" t="s">
+        <v>488</v>
       </c>
       <c r="B199" s="44" t="n">
         <v>180914</v>
@@ -8059,19 +8085,19 @@
         <v>1</v>
       </c>
       <c r="E199" s="27" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F199" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="H199" s="90" t="n">
+        <v>490</v>
+      </c>
+      <c r="H199" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I199" s="7"/>
     </row>
     <row r="200" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="81" t="s">
-        <v>490</v>
+      <c r="A200" s="82" t="s">
+        <v>491</v>
       </c>
       <c r="B200" s="32" t="n">
         <v>59720</v>
@@ -8083,19 +8109,19 @@
         <v>1</v>
       </c>
       <c r="E200" s="27" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F200" s="24" t="s">
-        <v>492</v>
-      </c>
-      <c r="H200" s="90" t="n">
+        <v>493</v>
+      </c>
+      <c r="H200" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I200" s="7"/>
     </row>
     <row r="201" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="81" t="s">
-        <v>493</v>
+      <c r="A201" s="82" t="s">
+        <v>494</v>
       </c>
       <c r="B201" s="32" t="n">
         <v>34377</v>
@@ -8107,19 +8133,19 @@
         <v>1</v>
       </c>
       <c r="E201" s="27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F201" s="24" t="s">
-        <v>495</v>
-      </c>
-      <c r="H201" s="90" t="n">
+        <v>496</v>
+      </c>
+      <c r="H201" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I201" s="7"/>
     </row>
     <row r="202" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="81" t="s">
-        <v>496</v>
+      <c r="A202" s="82" t="s">
+        <v>497</v>
       </c>
       <c r="B202" s="32" t="n">
         <v>17756</v>
@@ -8131,19 +8157,19 @@
         <v>1</v>
       </c>
       <c r="E202" s="27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F202" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="H202" s="90" t="n">
+        <v>499</v>
+      </c>
+      <c r="H202" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I202" s="7"/>
     </row>
     <row r="203" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="81" t="s">
-        <v>499</v>
+      <c r="A203" s="82" t="s">
+        <v>500</v>
       </c>
       <c r="B203" s="32" t="n">
         <v>245588</v>
@@ -8155,19 +8181,19 @@
         <v>1</v>
       </c>
       <c r="E203" s="27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F203" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="H203" s="90" t="n">
+        <v>502</v>
+      </c>
+      <c r="H203" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I203" s="7"/>
     </row>
     <row r="204" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="81" t="s">
-        <v>502</v>
+      <c r="A204" s="82" t="s">
+        <v>503</v>
       </c>
       <c r="B204" s="32" t="n">
         <v>44861</v>
@@ -8179,19 +8205,19 @@
         <v>1</v>
       </c>
       <c r="E204" s="27" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F204" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="H204" s="90" t="n">
+        <v>505</v>
+      </c>
+      <c r="H204" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I204" s="7"/>
     </row>
     <row r="205" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="91" t="s">
-        <v>505</v>
+      <c r="A205" s="92" t="s">
+        <v>506</v>
       </c>
       <c r="B205" s="32" t="n">
         <v>37965</v>
@@ -8203,22 +8229,22 @@
         <v>1</v>
       </c>
       <c r="E205" s="27" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F205" s="24" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G205" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H205" s="90" t="n">
+      <c r="H205" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I205" s="7"/>
     </row>
     <row r="206" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="91" t="s">
-        <v>505</v>
+      <c r="A206" s="92" t="s">
+        <v>506</v>
       </c>
       <c r="B206" s="32" t="n">
         <v>29028</v>
@@ -8230,22 +8256,22 @@
         <v>1</v>
       </c>
       <c r="E206" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="F206" s="24" t="s">
         <v>508</v>
-      </c>
-      <c r="F206" s="24" t="s">
-        <v>507</v>
       </c>
       <c r="G206" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H206" s="90" t="n">
+      <c r="H206" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I206" s="7"/>
     </row>
     <row r="207" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="81" t="s">
-        <v>509</v>
+      <c r="A207" s="82" t="s">
+        <v>510</v>
       </c>
       <c r="B207" s="32" t="n">
         <v>118529</v>
@@ -8257,19 +8283,19 @@
         <v>1</v>
       </c>
       <c r="E207" s="27" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F207" s="24" t="s">
-        <v>511</v>
-      </c>
-      <c r="H207" s="90" t="n">
+        <v>512</v>
+      </c>
+      <c r="H207" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I207" s="7"/>
     </row>
     <row r="208" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="81" t="s">
-        <v>512</v>
+      <c r="A208" s="82" t="s">
+        <v>513</v>
       </c>
       <c r="B208" s="32" t="n">
         <v>66471</v>
@@ -8281,21 +8307,21 @@
         <v>1</v>
       </c>
       <c r="E208" s="27" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F208" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="H208" s="90" t="n">
+        <v>515</v>
+      </c>
+      <c r="H208" s="91" t="n">
         <v>7</v>
       </c>
       <c r="I208" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="76" t="s">
-        <v>515</v>
+      <c r="A210" s="77" t="s">
+        <v>516</v>
       </c>
       <c r="B210" s="32" t="n">
         <v>47195</v>
@@ -8310,18 +8336,18 @@
         <v>3275</v>
       </c>
       <c r="F210" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="H210" s="95" t="n">
+        <v>517</v>
+      </c>
+      <c r="H210" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="I210" s="96" t="s">
-        <v>517</v>
+      <c r="I210" s="97" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="76" t="s">
-        <v>518</v>
+      <c r="A212" s="77" t="s">
+        <v>519</v>
       </c>
       <c r="B212" s="32" t="n">
         <v>189525</v>
@@ -8336,13 +8362,13 @@
         <v>3868</v>
       </c>
       <c r="F212" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="H212" s="95" t="n">
+        <v>520</v>
+      </c>
+      <c r="H212" s="96" t="n">
         <v>3</v>
       </c>
       <c r="I212" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8402,7 +8428,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.85"/>
@@ -8413,39 +8439,39 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="97" t="s">
-        <v>521</v>
-      </c>
-      <c r="B1" s="97" t="s">
+      <c r="A1" s="98" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="98" t="s">
-        <v>522</v>
-      </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="99" t="s">
+      <c r="C1" s="99" t="s">
         <v>523</v>
       </c>
-      <c r="F1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="100" t="s">
+        <v>524</v>
+      </c>
+      <c r="F1" s="100"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="100" t="s">
-        <v>524</v>
-      </c>
-      <c r="D2" s="100" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="101" t="s">
         <v>525</v>
       </c>
-      <c r="E2" s="101" t="s">
-        <v>524</v>
-      </c>
-      <c r="F2" s="101" t="s">
+      <c r="D2" s="101" t="s">
+        <v>526</v>
+      </c>
+      <c r="E2" s="102" t="s">
         <v>525</v>
+      </c>
+      <c r="F2" s="102" t="s">
+        <v>526</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -8453,22 +8479,22 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="87" t="s">
-        <v>476</v>
-      </c>
-      <c r="B3" s="88" t="s">
+      <c r="A3" s="88" t="s">
         <v>477</v>
       </c>
-      <c r="C3" s="102" t="n">
+      <c r="B3" s="89" t="s">
+        <v>478</v>
+      </c>
+      <c r="C3" s="103" t="n">
         <v>77913</v>
       </c>
-      <c r="D3" s="102" t="n">
+      <c r="D3" s="103" t="n">
         <v>79199</v>
       </c>
-      <c r="E3" s="103" t="n">
+      <c r="E3" s="104" t="n">
         <v>61833</v>
       </c>
-      <c r="F3" s="103" t="n">
+      <c r="F3" s="104" t="n">
         <v>62761</v>
       </c>
       <c r="G3" s="7"/>
@@ -8477,22 +8503,22 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="87" t="s">
-        <v>479</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="88" t="s">
         <v>480</v>
       </c>
-      <c r="C4" s="104" t="n">
+      <c r="B4" s="89" t="s">
+        <v>481</v>
+      </c>
+      <c r="C4" s="105" t="n">
         <v>61833</v>
       </c>
-      <c r="D4" s="104" t="n">
+      <c r="D4" s="105" t="n">
         <v>62761</v>
       </c>
-      <c r="E4" s="105" t="n">
+      <c r="E4" s="106" t="n">
         <v>77913</v>
       </c>
-      <c r="F4" s="105" t="n">
+      <c r="F4" s="106" t="n">
         <v>79199</v>
       </c>
       <c r="G4" s="7"/>
@@ -8501,32 +8527,32 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="87" t="s">
-        <v>506</v>
-      </c>
-      <c r="B6" s="88" t="s">
+      <c r="A6" s="88" t="s">
         <v>507</v>
       </c>
-      <c r="C6" s="102" t="n">
+      <c r="B6" s="89" t="s">
+        <v>508</v>
+      </c>
+      <c r="C6" s="103" t="n">
         <v>37965</v>
       </c>
-      <c r="D6" s="102" t="n">
+      <c r="D6" s="103" t="n">
         <v>39614</v>
       </c>
-      <c r="E6" s="105" t="n">
+      <c r="E6" s="106" t="n">
         <v>29028</v>
       </c>
-      <c r="F6" s="105" t="n">
+      <c r="F6" s="106" t="n">
         <v>30930</v>
       </c>
       <c r="G6" s="7"/>
@@ -8535,22 +8561,22 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="88" t="s">
+        <v>509</v>
+      </c>
+      <c r="B7" s="89" t="s">
         <v>508</v>
       </c>
-      <c r="B7" s="88" t="s">
-        <v>507</v>
-      </c>
-      <c r="C7" s="102" t="n">
+      <c r="C7" s="103" t="n">
         <v>29028</v>
       </c>
-      <c r="D7" s="102" t="n">
+      <c r="D7" s="103" t="n">
         <v>30930</v>
       </c>
-      <c r="E7" s="105" t="n">
+      <c r="E7" s="106" t="n">
         <v>37965</v>
       </c>
-      <c r="F7" s="105" t="n">
+      <c r="F7" s="106" t="n">
         <v>39614</v>
       </c>
       <c r="G7" s="7"/>
@@ -8559,32 +8585,32 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="110" t="n">
+      <c r="A9" s="111" t="n">
         <v>3855</v>
       </c>
-      <c r="B9" s="88" t="s">
-        <v>420</v>
-      </c>
-      <c r="C9" s="111" t="n">
+      <c r="B9" s="89" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="112" t="n">
         <v>51435</v>
       </c>
-      <c r="D9" s="111" t="n">
+      <c r="D9" s="112" t="n">
         <v>51774</v>
       </c>
-      <c r="E9" s="112" t="n">
+      <c r="E9" s="113" t="n">
         <v>122957</v>
       </c>
-      <c r="F9" s="112" t="n">
+      <c r="F9" s="113" t="n">
         <v>127446</v>
       </c>
       <c r="G9" s="7"/>
@@ -8593,22 +8619,22 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="88" t="s">
+        <v>422</v>
+      </c>
+      <c r="B10" s="89" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="88" t="s">
-        <v>420</v>
-      </c>
-      <c r="C10" s="111" t="n">
+      <c r="C10" s="112" t="n">
         <v>122957</v>
       </c>
-      <c r="D10" s="111" t="n">
+      <c r="D10" s="112" t="n">
         <v>127446</v>
       </c>
-      <c r="E10" s="112" t="n">
+      <c r="E10" s="113" t="n">
         <v>51435</v>
       </c>
-      <c r="F10" s="112" t="n">
+      <c r="F10" s="113" t="n">
         <v>51774</v>
       </c>
       <c r="G10" s="7"/>

--- a/databases/xlsx/import_all/import 21.07.xlsx
+++ b/databases/xlsx/import_all/import 21.07.xlsx
@@ -3229,12 +3229,12 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L75" activeCellId="0" sqref="L75"/>
+      <selection pane="bottomLeft" activeCell="C76" activeCellId="0" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="102.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.41"/>
@@ -5038,10 +5038,10 @@
         <v>167</v>
       </c>
       <c r="B74" s="45" t="n">
-        <v>101204</v>
+        <v>1204</v>
       </c>
       <c r="C74" s="45" t="n">
-        <v>105258</v>
+        <v>5258</v>
       </c>
       <c r="D74" s="32" t="n">
         <v>1</v>
@@ -5101,7 +5101,7 @@
         <v>99989</v>
       </c>
       <c r="C76" s="32" t="n">
-        <v>102585</v>
+        <v>2585</v>
       </c>
       <c r="D76" s="32" t="n">
         <v>1</v>
@@ -8428,7 +8428,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.85"/>

--- a/databases/xlsx/import_all/import 21.07.xlsx
+++ b/databases/xlsx/import_all/import 21.07.xlsx
@@ -3229,12 +3229,12 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C76" activeCellId="0" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="C169" activeCellId="0" sqref="C169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="102.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.41"/>
@@ -8428,7 +8428,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.85"/>
